--- a/data/hotels_by_city/Houston/Houston_shard_490.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_490.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="618">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g55879-d244356-Reviews-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
   </si>
   <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Galveston-Hotels-Motel-6-Galveston.h996345.Hotel-Information?chkin=7%2F22%2F2018&amp;chkout=7%2F23%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1531443469572&amp;cancellable=false&amp;regionId=6059123&amp;vip=false&amp;c=bcc97796-6c48-437f-8216-5a956ac187ce&amp;mctc=9&amp;exp_dp=67.99&amp;exp_ts=1531443470035&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,1744 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r586537320-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>55879</t>
+  </si>
+  <si>
+    <t>244356</t>
+  </si>
+  <si>
+    <t>586537320</t>
+  </si>
+  <si>
+    <t>06/10/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not what I expected </t>
+  </si>
+  <si>
+    <t>I was shocked at how runned down it has become. This is our usual spot to stay because we got married on the island and we stayed there during our wedding weekend. I was surprised at how dirty the bathroom and floors and aircon were. There was hair everywhere! Substandard even for Motel 6. I did like the upgrade to the iPad/app registration- it was a very smooth process and the front staff weren’t amazing but weren’t rude. I’m going to second guess and shop around next time. I didn’t feel we got a good deal. $154! No!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Motel 6 Galveston, responded to this reviewResponded June 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2018</t>
+  </si>
+  <si>
+    <t>I was shocked at how runned down it has become. This is our usual spot to stay because we got married on the island and we stayed there during our wedding weekend. I was surprised at how dirty the bathroom and floors and aircon were. There was hair everywhere! Substandard even for Motel 6. I did like the upgrade to the iPad/app registration- it was a very smooth process and the front staff weren’t amazing but weren’t rude. I’m going to second guess and shop around next time. I didn’t feel we got a good deal. $154! No!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r584865131-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>584865131</t>
+  </si>
+  <si>
+    <t>06/03/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gets the job done </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed because of the price compared to rooms located on Seawall. Rooms were clean and staff was friendly. Great location on the island. Decent pool.  If all you need is a shower and bed and don’t plan on staying in the room for more than that then this is perfect for you. Would stay again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r584654661-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>584654661</t>
+  </si>
+  <si>
+    <t>06/02/2018</t>
+  </si>
+  <si>
+    <t>Clean room, pleasant staff</t>
+  </si>
+  <si>
+    <t>I was on the island visiting some friends, and decided to stay here instead of being closer to the beach to save a few bucks. The room was clean and the staff was friendly. Met a manager named Dana who was super friendly, and seemed to be genuinely concerned about he quality of my stay. Will definitely stay again.</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r562358120-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>562358120</t>
+  </si>
+  <si>
+    <t>02/23/2018</t>
+  </si>
+  <si>
+    <t>Simple. Inexpensive. Just fine.</t>
+  </si>
+  <si>
+    <t>Nice. Simple. Just fine when all you need is a place to bathe and sleep. We spend all day outside (kayaking or walking the beach) when we come to Galveston, so this is all we need. It's a typical inexpensive hotel. Service at desk was friendly &amp; helpful with directions to downtown. 
+First, Double check that your magnetic keys work! Mine did, but my husband's did not.
+The bedroom area is less spaceous than most hotels, but not too snug to make it awkward. Small TV. Small half-moon table with chairs just below TV. Outlet right next to table for charging devices. The bathroom is a bit roomy. Probably because there's no tub. Corner shower only. Hooks on walls for robes. Vanity is nice. Lighting is not so bright that it blinds you first thing in the AM (that's a plus in my book). Has extra towels (regular size, not bath sheets). Soap only in room. You may be able to ask at desk if you need shampoo. Beds seem somewhat firm to me (I'm a small, skinny girl.) Bring an extra blanket if your husband likes to sleep with it cold! The comforters are thin. 
+No breakfast. Buy some fruit at Kroger the night before. No microwave or fridge. No trailer parking. It costs $2.99 per 24 hrs to use WiFi. 
+They do have a coin laundry behind the office. 2 washers and 2 dryers. Bring quarters.
+It's close...Nice. Simple. Just fine when all you need is a place to bathe and sleep. We spend all day outside (kayaking or walking the beach) when we come to Galveston, so this is all we need. It's a typical inexpensive hotel. Service at desk was friendly &amp; helpful with directions to downtown. First, Double check that your magnetic keys work! Mine did, but my husband's did not.The bedroom area is less spaceous than most hotels, but not too snug to make it awkward. Small TV. Small half-moon table with chairs just below TV. Outlet right next to table for charging devices. The bathroom is a bit roomy. Probably because there's no tub. Corner shower only. Hooks on walls for robes. Vanity is nice. Lighting is not so bright that it blinds you first thing in the AM (that's a plus in my book). Has extra towels (regular size, not bath sheets). Soap only in room. You may be able to ask at desk if you need shampoo. Beds seem somewhat firm to me (I'm a small, skinny girl.) Bring an extra blanket if your husband likes to sleep with it cold! The comforters are thin. No breakfast. Buy some fruit at Kroger the night before. No microwave or fridge. No trailer parking. It costs $2.99 per 24 hrs to use WiFi. They do have a coin laundry behind the office. 2 washers and 2 dryers. Bring quarters.It's close to a well-lit bridge &amp; park that is designed for fishing. And it's about a 10 minute drive from the oceanfront beach at Seawall Blvd. It was foggy near the beach, but temperature was pleasant.I-45 was less busy than the Seawall Blvd. I think 61st St and 71st St are the same road. It's just got a different name at each end. Hope this helps you know what to expect!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Nice. Simple. Just fine when all you need is a place to bathe and sleep. We spend all day outside (kayaking or walking the beach) when we come to Galveston, so this is all we need. It's a typical inexpensive hotel. Service at desk was friendly &amp; helpful with directions to downtown. 
+First, Double check that your magnetic keys work! Mine did, but my husband's did not.
+The bedroom area is less spaceous than most hotels, but not too snug to make it awkward. Small TV. Small half-moon table with chairs just below TV. Outlet right next to table for charging devices. The bathroom is a bit roomy. Probably because there's no tub. Corner shower only. Hooks on walls for robes. Vanity is nice. Lighting is not so bright that it blinds you first thing in the AM (that's a plus in my book). Has extra towels (regular size, not bath sheets). Soap only in room. You may be able to ask at desk if you need shampoo. Beds seem somewhat firm to me (I'm a small, skinny girl.) Bring an extra blanket if your husband likes to sleep with it cold! The comforters are thin. 
+No breakfast. Buy some fruit at Kroger the night before. No microwave or fridge. No trailer parking. It costs $2.99 per 24 hrs to use WiFi. 
+They do have a coin laundry behind the office. 2 washers and 2 dryers. Bring quarters.
+It's close...Nice. Simple. Just fine when all you need is a place to bathe and sleep. We spend all day outside (kayaking or walking the beach) when we come to Galveston, so this is all we need. It's a typical inexpensive hotel. Service at desk was friendly &amp; helpful with directions to downtown. First, Double check that your magnetic keys work! Mine did, but my husband's did not.The bedroom area is less spaceous than most hotels, but not too snug to make it awkward. Small TV. Small half-moon table with chairs just below TV. Outlet right next to table for charging devices. The bathroom is a bit roomy. Probably because there's no tub. Corner shower only. Hooks on walls for robes. Vanity is nice. Lighting is not so bright that it blinds you first thing in the AM (that's a plus in my book). Has extra towels (regular size, not bath sheets). Soap only in room. You may be able to ask at desk if you need shampoo. Beds seem somewhat firm to me (I'm a small, skinny girl.) Bring an extra blanket if your husband likes to sleep with it cold! The comforters are thin. No breakfast. Buy some fruit at Kroger the night before. No microwave or fridge. No trailer parking. It costs $2.99 per 24 hrs to use WiFi. They do have a coin laundry behind the office. 2 washers and 2 dryers. Bring quarters.It's close to a well-lit bridge &amp; park that is designed for fishing. And it's about a 10 minute drive from the oceanfront beach at Seawall Blvd. It was foggy near the beach, but temperature was pleasant.I-45 was less busy than the Seawall Blvd. I think 61st St and 71st St are the same road. It's just got a different name at each end. Hope this helps you know what to expect!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r545302326-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>545302326</t>
+  </si>
+  <si>
+    <t>12/05/2017</t>
+  </si>
+  <si>
+    <t>Just one night</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compared to all the other hotels In  Galveston, this is worth the price.   One of the few basic hotels reasonably priced.  All we wanted was a place to sleep before a cruise.  This worked.   Don't expect any glam.  Was clean,  bed comfortable.   Somewhat noisy, by a busy highway.   Try tho book at the back. </t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r529479537-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>529479537</t>
+  </si>
+  <si>
+    <t>10/03/2017</t>
+  </si>
+  <si>
+    <t>Good price</t>
+  </si>
+  <si>
+    <t>We stayed here for a night trip to the beach.  It wasn't that far away from all the attractions.  Rooms were very clean.  We could still walk to the beach for more we were.  Free Wi-Fi!!  Would definitely stay again.</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r518525338-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>518525338</t>
+  </si>
+  <si>
+    <t>08/28/2017</t>
+  </si>
+  <si>
+    <t>Good place to stay within budget</t>
+  </si>
+  <si>
+    <t>Stayed here on multiple occasions and it's a good place to sleep. The showers are a little different and the all wood floors can be problematic but it's still a good place with nice people so I would recommend it if you're on a limited budget or if somewhere else is booked.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r516441430-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>516441430</t>
+  </si>
+  <si>
+    <t>08/22/2017</t>
+  </si>
+  <si>
+    <t>Never again! Blood splattered dirty hotel room!!!</t>
+  </si>
+  <si>
+    <t>My 2 children and I visited their grandparents in Galveston August 16th. Their grandparents booked us a room for the night we were there. We checked in a little after 6pm and did the usual hotel thing: unloaded the car, plugged phones in and sat down. The room was small and lacked everything except a tv. I shrugged off the size since it was a free room for one night.  I went to the bathroom and noticed a fresh blood spatter mark in the bathroom. This prompted me to look around the room more closely. I started taking pictures and noticed blood like marks throughout the room (from the ceilibg to the floor on almost every wall in the room)and extremely dirty conditions including several living spiders and webs above the window. I also had my daughter video tape the room while I was taking pictures so I could show the front desk staff. We loaded up the car and went to the front desk where the lady was incredibly rude and didn't want to look at the room or our pictures. She refused us a refund or to work with us stating that we had been in the room almost an hour. We left and I ended up booking a last minute room at the Townplace Marriott (which was over the top incredible btw). I came home the next day and wrote the Motel 6 corporate customer relations department...My 2 children and I visited their grandparents in Galveston August 16th. Their grandparents booked us a room for the night we were there. We checked in a little after 6pm and did the usual hotel thing: unloaded the car, plugged phones in and sat down. The room was small and lacked everything except a tv. I shrugged off the size since it was a free room for one night.  I went to the bathroom and noticed a fresh blood spatter mark in the bathroom. This prompted me to look around the room more closely. I started taking pictures and noticed blood like marks throughout the room (from the ceilibg to the floor on almost every wall in the room)and extremely dirty conditions including several living spiders and webs above the window. I also had my daughter video tape the room while I was taking pictures so I could show the front desk staff. We loaded up the car and went to the front desk where the lady was incredibly rude and didn't want to look at the room or our pictures. She refused us a refund or to work with us stating that we had been in the room almost an hour. We left and I ended up booking a last minute room at the Townplace Marriott (which was over the top incredible btw). I came home the next day and wrote the Motel 6 corporate customer relations department and have yet to receive a response. I will NEVER stay at a motel 6 again for as long as I am alive and seeing how my son was bawling his eyes out and is now scared from the blood in the room, my children will never stay at one either. Horrible service and appalling conditions. Photos posted below....MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Galveston, responded to this reviewResponded August 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 29, 2017</t>
+  </si>
+  <si>
+    <t>My 2 children and I visited their grandparents in Galveston August 16th. Their grandparents booked us a room for the night we were there. We checked in a little after 6pm and did the usual hotel thing: unloaded the car, plugged phones in and sat down. The room was small and lacked everything except a tv. I shrugged off the size since it was a free room for one night.  I went to the bathroom and noticed a fresh blood spatter mark in the bathroom. This prompted me to look around the room more closely. I started taking pictures and noticed blood like marks throughout the room (from the ceilibg to the floor on almost every wall in the room)and extremely dirty conditions including several living spiders and webs above the window. I also had my daughter video tape the room while I was taking pictures so I could show the front desk staff. We loaded up the car and went to the front desk where the lady was incredibly rude and didn't want to look at the room or our pictures. She refused us a refund or to work with us stating that we had been in the room almost an hour. We left and I ended up booking a last minute room at the Townplace Marriott (which was over the top incredible btw). I came home the next day and wrote the Motel 6 corporate customer relations department...My 2 children and I visited their grandparents in Galveston August 16th. Their grandparents booked us a room for the night we were there. We checked in a little after 6pm and did the usual hotel thing: unloaded the car, plugged phones in and sat down. The room was small and lacked everything except a tv. I shrugged off the size since it was a free room for one night.  I went to the bathroom and noticed a fresh blood spatter mark in the bathroom. This prompted me to look around the room more closely. I started taking pictures and noticed blood like marks throughout the room (from the ceilibg to the floor on almost every wall in the room)and extremely dirty conditions including several living spiders and webs above the window. I also had my daughter video tape the room while I was taking pictures so I could show the front desk staff. We loaded up the car and went to the front desk where the lady was incredibly rude and didn't want to look at the room or our pictures. She refused us a refund or to work with us stating that we had been in the room almost an hour. We left and I ended up booking a last minute room at the Townplace Marriott (which was over the top incredible btw). I came home the next day and wrote the Motel 6 corporate customer relations department and have yet to receive a response. I will NEVER stay at a motel 6 again for as long as I am alive and seeing how my son was bawling his eyes out and is now scared from the blood in the room, my children will never stay at one either. Horrible service and appalling conditions. Photos posted below....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r502827895-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>502827895</t>
+  </si>
+  <si>
+    <t>07/17/2017</t>
+  </si>
+  <si>
+    <t>Stay Away</t>
+  </si>
+  <si>
+    <t>Rooms are super small. They only clean rooms every 3 days. Just threw new towels on the bed. No new plastic cups, soap, etc.. Service/Management are the worst I have ever experienced! Recommend staying elsewhere.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r492327371-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>492327371</t>
+  </si>
+  <si>
+    <t>06/11/2017</t>
+  </si>
+  <si>
+    <t>Beds will break your back</t>
+  </si>
+  <si>
+    <t>We stayed here because  it was on the cheaper side. However you get what you pay for. There was no fridge. The beds were the most uncomfortable thing I ever slept on. It was like a kiddy mattress thrown on top of a piece of wood. You also have to pay for the WiFi and the rooms are super tiny. It was remodeled nicely. The staff was also plesant. Wouldn't stay again however. Our backs are broken.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Motel 6 Galveston, responded to this reviewResponded June 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 13, 2017</t>
+  </si>
+  <si>
+    <t>We stayed here because  it was on the cheaper side. However you get what you pay for. There was no fridge. The beds were the most uncomfortable thing I ever slept on. It was like a kiddy mattress thrown on top of a piece of wood. You also have to pay for the WiFi and the rooms are super tiny. It was remodeled nicely. The staff was also plesant. Wouldn't stay again however. Our backs are broken.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r488294584-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>488294584</t>
+  </si>
+  <si>
+    <t>05/27/2017</t>
+  </si>
+  <si>
+    <t>Isolated Location</t>
+  </si>
+  <si>
+    <t>For a Motel 6, this is in excellent condition, everything well maintained, clean, comfortable. All Motel 6's are not equal, especially in Texas, especially around Houston. The room rates were jacked up 50%, we paid 100/N because of graduation parties, etc. Wi-Fi is extra. All hotels in Galveston routinely gouge pricing for season or events.The reason for not returning to this Motel 6 is that there is NOTHING around it for gas, food, anything. The closest stores are 4-5 miles away.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>For a Motel 6, this is in excellent condition, everything well maintained, clean, comfortable. All Motel 6's are not equal, especially in Texas, especially around Houston. The room rates were jacked up 50%, we paid 100/N because of graduation parties, etc. Wi-Fi is extra. All hotels in Galveston routinely gouge pricing for season or events.The reason for not returning to this Motel 6 is that there is NOTHING around it for gas, food, anything. The closest stores are 4-5 miles away.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r486832039-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>486832039</t>
+  </si>
+  <si>
+    <t>05/23/2017</t>
+  </si>
+  <si>
+    <t>Motel</t>
+  </si>
+  <si>
+    <t>Great cheap priced motel with flat screen tvs,pool and driving distance to the beach.if your on a budget then this is for you.close to utmb medical center (john sealy) hospital..try to avoid this hospital allmost killed me in a routine back surgury in 2010..MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Great cheap priced motel with flat screen tvs,pool and driving distance to the beach.if your on a budget then this is for you.close to utmb medical center (john sealy) hospital..try to avoid this hospital allmost killed me in a routine back surgury in 2010..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r475116415-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>475116415</t>
+  </si>
+  <si>
+    <t>04/12/2017</t>
+  </si>
+  <si>
+    <t>Nasty</t>
+  </si>
+  <si>
+    <t>Nasty place to stay. Bed very uncomfortable . Come to find out mattress very old and torn, phone didnt work. Room was dirty . When we were leaving as we always do we stripped the bed for them and the lady put the comforter and top sheet off of the floor back on the bed :-( . Thats just gross so never again would we stay at that placeMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Motel 6 Galveston, responded to this reviewResponded April 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 13, 2017</t>
+  </si>
+  <si>
+    <t>Nasty place to stay. Bed very uncomfortable . Come to find out mattress very old and torn, phone didnt work. Room was dirty . When we were leaving as we always do we stripped the bed for them and the lady put the comforter and top sheet off of the floor back on the bed :-( . Thats just gross so never again would we stay at that placeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r466497870-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>466497870</t>
+  </si>
+  <si>
+    <t>03/12/2017</t>
+  </si>
+  <si>
+    <t>Ew yuck!</t>
+  </si>
+  <si>
+    <t>Old, remodeled poorly, dirty, room was said to be "nonsmoking." It smelled terrible and more than cigarettes had been smoked in the room! So grossed out I slept in my clothes on top of the comforter. $100 for motel 6. Dont leave the light on for me!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Galveston, responded to this reviewResponded March 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 13, 2017</t>
+  </si>
+  <si>
+    <t>Old, remodeled poorly, dirty, room was said to be "nonsmoking." It smelled terrible and more than cigarettes had been smoked in the room! So grossed out I slept in my clothes on top of the comforter. $100 for motel 6. Dont leave the light on for me!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r447293970-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>447293970</t>
+  </si>
+  <si>
+    <t>12/28/2016</t>
+  </si>
+  <si>
+    <t>No Fair</t>
+  </si>
+  <si>
+    <t>When we arrived at 5:00 p.m., the room was not ready yet and we waited for about two hours and we were all exhausted. They try to make it up by being nice and everything but still that is not necessary.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r435997265-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>435997265</t>
+  </si>
+  <si>
+    <t>11/09/2016</t>
+  </si>
+  <si>
+    <t>Seawall</t>
+  </si>
+  <si>
+    <t>Had an excellent time on the seawall and beach we also visited the train Museum rode the ferry across there was a lot of history in Galveston Texas it's worth the trip.w went and took a tour of the submarine on Seawolf island. Let the kiddos play at the play ground there did a little fishing seen some dolphin's in the water way.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r434137046-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>434137046</t>
+  </si>
+  <si>
+    <t>11/02/2016</t>
+  </si>
+  <si>
+    <t>Stayed night before cruise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This motel was okay. We really had no problems other than the sink backing up a few times. The beds were comfortable. Our issue was the neighborhood was very sketchy. If we had to stay more than one night we probably would've found another place to stay. </t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r431302112-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>431302112</t>
+  </si>
+  <si>
+    <t>10/24/2016</t>
+  </si>
+  <si>
+    <t>William Roberts</t>
+  </si>
+  <si>
+    <t>This was one one of the best Motel 6 motels i have been to in years i love it the rooms where clean they where just spot less we had a chance to meet some of the staff an they where so helpful good job Motel 6 keep up the good work.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r403021264-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>403021264</t>
+  </si>
+  <si>
+    <t>08/08/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disappointing </t>
+  </si>
+  <si>
+    <t>You get what you pay for at this place, but actually, you probably get a lot less. The king size bed we requested was the size of a queen.. maybe.  Plus, all the bed was , was a mattress that was placed on a metal cot .Since we were placed in a handicap room, the bathroom was large, which was good, but there was hardly enough room at all in the sleeping side for my husband and me . There were absolutely no extras in the room , no iron/ironing board, no hair dryer, no microwave, no fridge, nothing. So if you like to be a little pampered, move on. This  place is not for you .  Lower your expectations on this one if you choose it. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>You get what you pay for at this place, but actually, you probably get a lot less. The king size bed we requested was the size of a queen.. maybe.  Plus, all the bed was , was a mattress that was placed on a metal cot .Since we were placed in a handicap room, the bathroom was large, which was good, but there was hardly enough room at all in the sleeping side for my husband and me . There were absolutely no extras in the room , no iron/ironing board, no hair dryer, no microwave, no fridge, nothing. So if you like to be a little pampered, move on. This  place is not for you .  Lower your expectations on this one if you choose it. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r399014311-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>399014311</t>
+  </si>
+  <si>
+    <t>07/29/2016</t>
+  </si>
+  <si>
+    <t>Find somewhere else to stay</t>
+  </si>
+  <si>
+    <t>Rooms are very small and smell moldy. Air conditioner barely blows and fails to cool the small room.  Shower has black grime in it and was very dirty. Front staff very rude. Only nice person was the maintenance man.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r398983361-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>398983361</t>
+  </si>
+  <si>
+    <t>Not a druggie, so didn't fit in!</t>
+  </si>
+  <si>
+    <t>Going in and out of our room, there was a group of "workers" smoking pot.  The stench of the "weed" was very strong.  These men were also drinking lots of beer.  Sort of frightening as we are seniors.  The ONLY reason we stayed here was because it was the only motel available for Memorial Day week-end.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r385247469-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>385247469</t>
+  </si>
+  <si>
+    <t>06/23/2016</t>
+  </si>
+  <si>
+    <t>Night before cruise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The best part about this place was the friendly gentleman working the counter. They've redone the rooms so that was a plus. If you are staying here for a night before I cruise it's worth the cheap stay, but don't pick here if you are coming for any kind of vacation. And though they let u leave your vehicle while u cruise, we didn't feel safe leaving it so we ended up paying for parking. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r379021094-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>379021094</t>
+  </si>
+  <si>
+    <t>06/02/2016</t>
+  </si>
+  <si>
+    <t>Not Fun</t>
+  </si>
+  <si>
+    <t>We had a three hour drive from San Antonio to Galveston. We arrived at the motel at 4:00 p.m. and they didn't even had a room ready for us. We had to wait another thirty minutes and the room wasn't even perfect. The lady did a good job setting up for us but it was small and the bathroom was cramped. The water didn't shoot water as fast enough. We didn't had a good stay and they were so nice to give is back half our money on what we played for.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r378486484-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>378486484</t>
+  </si>
+  <si>
+    <t>05/31/2016</t>
+  </si>
+  <si>
+    <t>Good for the money</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We've stayed at several Motel 6 locations &amp; this was one of the best. The bed was very comfortable. The rooms were updated.  We paid $3.00 extra a night for a fridge &amp; microwave.  The front desk clerk was very accomodating. She allowed us to check out several rooms to see which one we wanted. I wouldn't hesitate to stay here again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r349424309-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>349424309</t>
+  </si>
+  <si>
+    <t>02/20/2016</t>
+  </si>
+  <si>
+    <t>Return visitor</t>
+  </si>
+  <si>
+    <t>Been there many, many times, thru the years, has always been clean, staff good, no people hanging in the parking lot or anything like that. Best side to stay is the side towards galveston, because on the other side is a bit lumber store, kinda noisy. My only complaint is that you still have to pay for WIFI. When they gonna make it free like all other places.? The prices are better thru the week, but on the weekend they get really expensive. Its not worth the expensive weekends, just easier to pay that money at a nicer motel closer to the beach.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r346593760-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>346593760</t>
+  </si>
+  <si>
+    <t>02/10/2016</t>
+  </si>
+  <si>
+    <t>Terrible place to stay.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walked in to my room and the first thing I see is roaches on the bed. I go to the front desk and ask for a refund do to roaches. The general manager informed me she doesn't have bugs. She was very argumentative and never once did she apologize or offer a different room. The general manager Dana Alexander has no business to be in the job position she is in. Dana Alexander is the epitome of general management. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r339392401-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>339392401</t>
+  </si>
+  <si>
+    <t>01/12/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer </t>
+  </si>
+  <si>
+    <t>The room is small but very clean...Good location....The front desk lady was super nice and very helpful...We enjoyed our stay especially for the price it is a bargain. ....bed was a little  to firm for my liking. ..but it had clean hardwood flooring instead of nasty carpet....I would stay here again....Sure beat paying double and triple the price to eat powder eggs at the holiday inn......</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r324351126-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>324351126</t>
+  </si>
+  <si>
+    <t>11/04/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great surprise </t>
+  </si>
+  <si>
+    <t>I used Motel 6 for the first time, because they are pet friendly.  I was extremely pleased with my basic clean room.  The room was designed very efficiently.  Laminate flooring instead of carpet.  Flat screen Tv with charging stations a nice sitting area.  They also has a dog walk area with poop bags a small but very clean pool and friendly staff.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r320717468-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>320717468</t>
+  </si>
+  <si>
+    <t>10/21/2015</t>
+  </si>
+  <si>
+    <t>I prepaid for 3 rooms to be held. They sold my rooms to other guest had to repay for 2 other rooms</t>
+  </si>
+  <si>
+    <t>This was a terrible experience. I prepaid so my 3 rooms could be held. I asked before I booked that the rooms would be held because I knew we would not arrive until after midnight. When I got to the hotel the man at the counter told me that his supervisor told him to sell the rooms since we had not arrived before 1800 hours. I explained to him that I prepaid for the room therefore they were suppose to be held. He told me I would have to pay again and he only had two rooms available and I had to pay another 150.00 just to have somewhere to sleep and some of the people had to sleep on the van. This was a big inconvenience.MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Motel 6 Galveston, responded to this reviewResponded October 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 26, 2015</t>
+  </si>
+  <si>
+    <t>This was a terrible experience. I prepaid so my 3 rooms could be held. I asked before I booked that the rooms would be held because I knew we would not arrive until after midnight. When I got to the hotel the man at the counter told me that his supervisor told him to sell the rooms since we had not arrived before 1800 hours. I explained to him that I prepaid for the room therefore they were suppose to be held. He told me I would have to pay again and he only had two rooms available and I had to pay another 150.00 just to have somewhere to sleep and some of the people had to sleep on the van. This was a big inconvenience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r315190259-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>315190259</t>
+  </si>
+  <si>
+    <t>09/30/2015</t>
+  </si>
+  <si>
+    <t>Low price, you get what you pay for.</t>
+  </si>
+  <si>
+    <t>I had a cruise to catch the next day and didn't want to spend a lot of money.  The property is close to the cruise port, and cheaper than other hotels in the area.  The property and room was clean and served the purpose.  Early the next morning, the bathroom light wasn't working, neither was the hot water.  Had to get over that and get on my way, I was going on a cruise!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>6Team, brand expericened team member at Motel 6 Galveston, responded to this reviewResponded October 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 2, 2015</t>
+  </si>
+  <si>
+    <t>I had a cruise to catch the next day and didn't want to spend a lot of money.  The property is close to the cruise port, and cheaper than other hotels in the area.  The property and room was clean and served the purpose.  Early the next morning, the bathroom light wasn't working, neither was the hot water.  Had to get over that and get on my way, I was going on a cruise!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r310348282-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>310348282</t>
+  </si>
+  <si>
+    <t>09/14/2015</t>
+  </si>
+  <si>
+    <t>Functional for a couple days</t>
+  </si>
+  <si>
+    <t>Spent 2 nights here, awaiting a Caribbean Cruise. Prices were high due to labor day weekend, but better than most. Not far from Seawall. Room was a little wore down. We had stayed here years ago after the new upgrade. Flooring was a little buckled in places, edges worn on tables, etc. Not wore out though. The staff was awesome, and friendly. DO NOT BUY THE INTERNET SERVICE. I remember dial up, and it was faster. That is when I could connect. I went in the office to ask about it, and there was another customer getting a refund for it. I didn't bother, for the $3. All in all, the place was nice enough, and the guest laundry was affordable ($1.25 per load was, $1.25 dry) The commons areas were clean, and again, the staff was Great! Very friendly and helpful. Would and will definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Spent 2 nights here, awaiting a Caribbean Cruise. Prices were high due to labor day weekend, but better than most. Not far from Seawall. Room was a little wore down. We had stayed here years ago after the new upgrade. Flooring was a little buckled in places, edges worn on tables, etc. Not wore out though. The staff was awesome, and friendly. DO NOT BUY THE INTERNET SERVICE. I remember dial up, and it was faster. That is when I could connect. I went in the office to ask about it, and there was another customer getting a refund for it. I didn't bother, for the $3. All in all, the place was nice enough, and the guest laundry was affordable ($1.25 per load was, $1.25 dry) The commons areas were clean, and again, the staff was Great! Very friendly and helpful. Would and will definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r309393165-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>309393165</t>
+  </si>
+  <si>
+    <t>09/11/2015</t>
+  </si>
+  <si>
+    <t>Cruisers Beware- Scam Alert</t>
+  </si>
+  <si>
+    <t>Booked a room for two thru Orbitz for 58.99 + taxes. I called the hotel to check on the tax rate &amp; was quoted around 10$. When I went to check in to the hotel they refused to honored the booked rate even when I showed them a copy of the booking which clearly outlined the price. They had one person working the front desk &amp; I waited nearly a hour in line because it didn't appear that the person working knew how to operate the computer &amp; they had a line out the door to check in. I refused to pay &amp; left. My husband called from the parking lot &amp; asked for the rates guess what they quoted my original price. They are running some sort of bait &amp; switch scam and hoping that when people show up they will just give up &amp; pay the higher rate. MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, brand expericened team member at Motel 6 Galveston, responded to this reviewResponded September 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 14, 2015</t>
+  </si>
+  <si>
+    <t>Booked a room for two thru Orbitz for 58.99 + taxes. I called the hotel to check on the tax rate &amp; was quoted around 10$. When I went to check in to the hotel they refused to honored the booked rate even when I showed them a copy of the booking which clearly outlined the price. They had one person working the front desk &amp; I waited nearly a hour in line because it didn't appear that the person working knew how to operate the computer &amp; they had a line out the door to check in. I refused to pay &amp; left. My husband called from the parking lot &amp; asked for the rates guess what they quoted my original price. They are running some sort of bait &amp; switch scam and hoping that when people show up they will just give up &amp; pay the higher rate. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r298049388-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>298049388</t>
+  </si>
+  <si>
+    <t>08/11/2015</t>
+  </si>
+  <si>
+    <t>BAD SURROUNDINGS!!!</t>
+  </si>
+  <si>
+    <t>The price you pay for that's what you get!!!!! I would not recommend staying longer  then a night or two we stayed here because we had to bring our dog with us many places on the island do not take pets. This place is definitely not a place for a vacation when we pulled up to the motel we noticed possibly prostitutes walking around and definitely people that are drugs or looking for drugs.  When I went to check in to the motel the agents were ok just doing their jobs. When we went to our room I was very pleased on how clean it was the sheets were clean, clean towels, everything was clean.  There is no microwave, refrigerators, or coffee maker.  Also the room had no odor of any animals that may have been inside. THERE IS NO WIFI SERVICE YOU HAVE TO PAY!!!! the room was ok like I mentioned  clean and we had our dog ONE DOWNFALL ON THE ROOM WAS  the air conditioner was not powerful enough for cooling down the room.  The room was humid and stuffy the whole time.  When we came back to the room for the night there where police on the property something was going on.... this place is not a place for enjoyment or walking around.  We checked out the pool and during the day hours there were ladies drinking BEER inside the swimming pool.. they looked like they...The price you pay for that's what you get!!!!! I would not recommend staying longer  then a night or two we stayed here because we had to bring our dog with us many places on the island do not take pets. This place is definitely not a place for a vacation when we pulled up to the motel we noticed possibly prostitutes walking around and definitely people that are drugs or looking for drugs.  When I went to check in to the motel the agents were ok just doing their jobs. When we went to our room I was very pleased on how clean it was the sheets were clean, clean towels, everything was clean.  There is no microwave, refrigerators, or coffee maker.  Also the room had no odor of any animals that may have been inside. THERE IS NO WIFI SERVICE YOU HAVE TO PAY!!!! the room was ok like I mentioned  clean and we had our dog ONE DOWNFALL ON THE ROOM WAS  the air conditioner was not powerful enough for cooling down the room.  The room was humid and stuffy the whole time.  When we came back to the room for the night there where police on the property something was going on.... this place is not a place for enjoyment or walking around.  We checked out the pool and during the day hours there were ladies drinking BEER inside the swimming pool.. they looked like they wanted to be alone . it was not appropriate to bring kids there to swim and was a very uncomfortable setting. I also could see drug sales going on outside the rooms. So if you stay here and would like to save money and have a pet I would just go back to sleep and shower and make sure your car is locked. I would return to this motel because my room was clean and my dog was fine. But I wouldn't use it as pleasure or walk around alone.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>The price you pay for that's what you get!!!!! I would not recommend staying longer  then a night or two we stayed here because we had to bring our dog with us many places on the island do not take pets. This place is definitely not a place for a vacation when we pulled up to the motel we noticed possibly prostitutes walking around and definitely people that are drugs or looking for drugs.  When I went to check in to the motel the agents were ok just doing their jobs. When we went to our room I was very pleased on how clean it was the sheets were clean, clean towels, everything was clean.  There is no microwave, refrigerators, or coffee maker.  Also the room had no odor of any animals that may have been inside. THERE IS NO WIFI SERVICE YOU HAVE TO PAY!!!! the room was ok like I mentioned  clean and we had our dog ONE DOWNFALL ON THE ROOM WAS  the air conditioner was not powerful enough for cooling down the room.  The room was humid and stuffy the whole time.  When we came back to the room for the night there where police on the property something was going on.... this place is not a place for enjoyment or walking around.  We checked out the pool and during the day hours there were ladies drinking BEER inside the swimming pool.. they looked like they...The price you pay for that's what you get!!!!! I would not recommend staying longer  then a night or two we stayed here because we had to bring our dog with us many places on the island do not take pets. This place is definitely not a place for a vacation when we pulled up to the motel we noticed possibly prostitutes walking around and definitely people that are drugs or looking for drugs.  When I went to check in to the motel the agents were ok just doing their jobs. When we went to our room I was very pleased on how clean it was the sheets were clean, clean towels, everything was clean.  There is no microwave, refrigerators, or coffee maker.  Also the room had no odor of any animals that may have been inside. THERE IS NO WIFI SERVICE YOU HAVE TO PAY!!!! the room was ok like I mentioned  clean and we had our dog ONE DOWNFALL ON THE ROOM WAS  the air conditioner was not powerful enough for cooling down the room.  The room was humid and stuffy the whole time.  When we came back to the room for the night there where police on the property something was going on.... this place is not a place for enjoyment or walking around.  We checked out the pool and during the day hours there were ladies drinking BEER inside the swimming pool.. they looked like they wanted to be alone . it was not appropriate to bring kids there to swim and was a very uncomfortable setting. I also could see drug sales going on outside the rooms. So if you stay here and would like to save money and have a pet I would just go back to sleep and shower and make sure your car is locked. I would return to this motel because my room was clean and my dog was fine. But I wouldn't use it as pleasure or walk around alone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r289415589-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>289415589</t>
+  </si>
+  <si>
+    <t>07/15/2015</t>
+  </si>
+  <si>
+    <t>You get what you pay for</t>
+  </si>
+  <si>
+    <t>Good price and near to where I needed. You get what you pay for, seems like just a crowded room. Took me several attempts to figure out how to open the door. You apparently do the up down movement quite a bit. Took a shower and afterwards it would randomly leak. Got up at least 3 times to make sure it was turned off all the way. Had some company although natural instinct took over and had to smash the little fella MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Galveston, responded to this reviewResponded July 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 20, 2015</t>
+  </si>
+  <si>
+    <t>Good price and near to where I needed. You get what you pay for, seems like just a crowded room. Took me several attempts to figure out how to open the door. You apparently do the up down movement quite a bit. Took a shower and afterwards it would randomly leak. Got up at least 3 times to make sure it was turned off all the way. Had some company although natural instinct took over and had to smash the little fella More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r284174807-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>284174807</t>
+  </si>
+  <si>
+    <t>06/30/2015</t>
+  </si>
+  <si>
+    <t>Horrible</t>
+  </si>
+  <si>
+    <t>I was very disappointed with hotel! The price I paid was $121 for  the room we got. We were traveling with another couple, anxious for our cruise the next morning. After a long journey we were ready just rest. It was far from it! We accepted the last rooms which were handicap, no problem I thought. The bed was like a full size, a mattress about 5 inches thick on wood platform.door knob literally fell to the floor when door opened. Looked like door jam had multiple attempts at some time to been broken into. All night, and I mean ALL night ,whoever was on floor above paced all night!those shoes made noise all night. But they weren't the only noise- the dogs in surrounding rooms....all night! The next morning they asked as I checked out "how was you stay?" I tell her. She smiles and said" I hope we see you again." Not a chance! My daughter is doing this cruise in a few months. I told her stay ANYWHERE but here! I'm not a complainer by nature, lesson learned! But I think when you take the door handle to front desk and express your disappointment ,they should have discounted or something. It may have been a much better review for them . My advice is - pay the extra for a much better place! It would be worth it for your peace of mind! Not only did I...I was very disappointed with hotel! The price I paid was $121 for  the room we got. We were traveling with another couple, anxious for our cruise the next morning. After a long journey we were ready just rest. It was far from it! We accepted the last rooms which were handicap, no problem I thought. The bed was like a full size, a mattress about 5 inches thick on wood platform.door knob literally fell to the floor when door opened. Looked like door jam had multiple attempts at some time to been broken into. All night, and I mean ALL night ,whoever was on floor above paced all night!those shoes made noise all night. But they weren't the only noise- the dogs in surrounding rooms....all night! The next morning they asked as I checked out "how was you stay?" I tell her. She smiles and said" I hope we see you again." Not a chance! My daughter is doing this cruise in a few months. I told her stay ANYWHERE but here! I'm not a complainer by nature, lesson learned! But I think when you take the door handle to front desk and express your disappointment ,they should have discounted or something. It may have been a much better review for them . My advice is - pay the extra for a much better place! It would be worth it for your peace of mind! Not only did I show them the door knob , I also called late at night about the dogs noise, they had evidence I wasn't happy. Hope the best for the rest of you in your choice of where to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Galveston, responded to this reviewResponded July 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 2, 2015</t>
+  </si>
+  <si>
+    <t>I was very disappointed with hotel! The price I paid was $121 for  the room we got. We were traveling with another couple, anxious for our cruise the next morning. After a long journey we were ready just rest. It was far from it! We accepted the last rooms which were handicap, no problem I thought. The bed was like a full size, a mattress about 5 inches thick on wood platform.door knob literally fell to the floor when door opened. Looked like door jam had multiple attempts at some time to been broken into. All night, and I mean ALL night ,whoever was on floor above paced all night!those shoes made noise all night. But they weren't the only noise- the dogs in surrounding rooms....all night! The next morning they asked as I checked out "how was you stay?" I tell her. She smiles and said" I hope we see you again." Not a chance! My daughter is doing this cruise in a few months. I told her stay ANYWHERE but here! I'm not a complainer by nature, lesson learned! But I think when you take the door handle to front desk and express your disappointment ,they should have discounted or something. It may have been a much better review for them . My advice is - pay the extra for a much better place! It would be worth it for your peace of mind! Not only did I...I was very disappointed with hotel! The price I paid was $121 for  the room we got. We were traveling with another couple, anxious for our cruise the next morning. After a long journey we were ready just rest. It was far from it! We accepted the last rooms which were handicap, no problem I thought. The bed was like a full size, a mattress about 5 inches thick on wood platform.door knob literally fell to the floor when door opened. Looked like door jam had multiple attempts at some time to been broken into. All night, and I mean ALL night ,whoever was on floor above paced all night!those shoes made noise all night. But they weren't the only noise- the dogs in surrounding rooms....all night! The next morning they asked as I checked out "how was you stay?" I tell her. She smiles and said" I hope we see you again." Not a chance! My daughter is doing this cruise in a few months. I told her stay ANYWHERE but here! I'm not a complainer by nature, lesson learned! But I think when you take the door handle to front desk and express your disappointment ,they should have discounted or something. It may have been a much better review for them . My advice is - pay the extra for a much better place! It would be worth it for your peace of mind! Not only did I show them the door knob , I also called late at night about the dogs noise, they had evidence I wasn't happy. Hope the best for the rest of you in your choice of where to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r281482554-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>281482554</t>
+  </si>
+  <si>
+    <t>06/19/2015</t>
+  </si>
+  <si>
+    <t>Loved our stay and loved the price</t>
+  </si>
+  <si>
+    <t>My wife and my son stayed here for three days and enjoyed it very much. I see some reviews on here about this place and those people that give it one star should be ashamed of themselves. The room was clean, and the staff was very kind. I especially like the professionalism of Dana, Victoria and Regina. They made me feel like I was home. People get snooty because there aren't microwaves and fridges in the room. Bring a cooler and get free ice from the front and go eat out. For the price and. Ring on the island this place can't be beat. I won't even look for another place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>My wife and my son stayed here for three days and enjoyed it very much. I see some reviews on here about this place and those people that give it one star should be ashamed of themselves. The room was clean, and the staff was very kind. I especially like the professionalism of Dana, Victoria and Regina. They made me feel like I was home. People get snooty because there aren't microwaves and fridges in the room. Bring a cooler and get free ice from the front and go eat out. For the price and. Ring on the island this place can't be beat. I won't even look for another place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r265471565-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>265471565</t>
+  </si>
+  <si>
+    <t>04/13/2015</t>
+  </si>
+  <si>
+    <t>Average Motel 6</t>
+  </si>
+  <si>
+    <t>Many of the rooms are being renovated at this time.  Laminate floors so they do not get mopped.  Maids spray deodorizer in the rooms so there is a build up of that on the floor making them feel greasy.  Bring your slippers to walk around in after you get out of the shower.  Hot water was warm not hot.  No danger of steaming the mirrors at all.  AC is a typical motel unit but able to keep the temperature where I wanted it.  There are other motels in the area at the same price or less but stayed here with my pet.  Would stay here again, but they sure need to do something about the hot water.  Water saving faucets and shower head so do not expect a hard stream of water in the shower.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Many of the rooms are being renovated at this time.  Laminate floors so they do not get mopped.  Maids spray deodorizer in the rooms so there is a build up of that on the floor making them feel greasy.  Bring your slippers to walk around in after you get out of the shower.  Hot water was warm not hot.  No danger of steaming the mirrors at all.  AC is a typical motel unit but able to keep the temperature where I wanted it.  There are other motels in the area at the same price or less but stayed here with my pet.  Would stay here again, but they sure need to do something about the hot water.  Water saving faucets and shower head so do not expect a hard stream of water in the shower.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r264086754-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>264086754</t>
+  </si>
+  <si>
+    <t>04/06/2015</t>
+  </si>
+  <si>
+    <t>Pass this one up !!!</t>
+  </si>
+  <si>
+    <t>First off during our check in they said that i had no reservation because i had cancelled it. After arguing with her she found out that her coworker cancelled it. He looked like he was fresh off the street corner. The room was not cleaned well. Floor dirty etc...And if you want a bed that feels like cement this is the place for you. The wi fi sucked. Very slow and would not play a video without re buffering. When checking out the lady at the front desk(same one that checked me in) ask me is was everything alright. When i told her about the bed she laughed like she thought it was funny. I have stayed at motel 6 before. The others were nice compared to this one.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Galveston, responded to this reviewResponded April 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2015</t>
+  </si>
+  <si>
+    <t>First off during our check in they said that i had no reservation because i had cancelled it. After arguing with her she found out that her coworker cancelled it. He looked like he was fresh off the street corner. The room was not cleaned well. Floor dirty etc...And if you want a bed that feels like cement this is the place for you. The wi fi sucked. Very slow and would not play a video without re buffering. When checking out the lady at the front desk(same one that checked me in) ask me is was everything alright. When i told her about the bed she laughed like she thought it was funny. I have stayed at motel 6 before. The others were nice compared to this one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r260864669-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>260864669</t>
+  </si>
+  <si>
+    <t>03/21/2015</t>
+  </si>
+  <si>
+    <t>Last minute place</t>
+  </si>
+  <si>
+    <t>My husband I decided at the last minute to visit Galveston for his birthday.  Unfortunately it was spring break and we could not find an open room. But then, we found Motel 6. What's the saying? It is what it is. Be prepared, this room offered only a bed, a shower (no water pressure) a table and tv. Most hotels have in room coffee, iron, blow dryer... not here. The room looked nice, but I was bothered that the floor was sandy... yes its the beach but cleaning should have taken care of that. Sorry to be so long winded, but I want folks to know what to expect.  The staff that we encountered I will say were friendly and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband I decided at the last minute to visit Galveston for his birthday.  Unfortunately it was spring break and we could not find an open room. But then, we found Motel 6. What's the saying? It is what it is. Be prepared, this room offered only a bed, a shower (no water pressure) a table and tv. Most hotels have in room coffee, iron, blow dryer... not here. The room looked nice, but I was bothered that the floor was sandy... yes its the beach but cleaning should have taken care of that. Sorry to be so long winded, but I want folks to know what to expect.  The staff that we encountered I will say were friendly and helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r244728619-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>244728619</t>
+  </si>
+  <si>
+    <t>12/16/2014</t>
+  </si>
+  <si>
+    <t>worst of worst</t>
+  </si>
+  <si>
+    <t>this is the second time i have stayed in a motel 6 in Texas both times were beyond horrible! I have stayed at plenty of hotels and these only in Texas can I say i truly hated. The rooms were dirty, the beds were slept in the towels were useless and the bathrooms were disgusting! I had to go to the front desk for everything and not once was the desk clerk nice!! Avoid this place if possible!</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r237845668-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>237845668</t>
+  </si>
+  <si>
+    <t>11/03/2014</t>
+  </si>
+  <si>
+    <t>Less Expensive option near cruise Pier</t>
+  </si>
+  <si>
+    <t>We were looking for an affordable location to spend the night before boarding a ship.  Galveston hotels tend to cost well over $150/night.  This Motel 6 was a pleasant surprise.  We paid $82/night (including tax) for 2 double beds.  Nice room - poolside.  Front desk staff was very helpful and accommodating.  Sure you have to go to the front desk for vending/ice, extra towels, but the room was clean, beds were quite comfortable.  Bath towels were a little smaller than usual but they did the job.  Coffee was available in the morning.
+We had made a reservation for Yellow Cab to pick us up at 10:00 am.  When the cab had still not arrived by 10:45 after 2 additional calls to Yellow Cab, the Manager of this Motel had an employee drive us to the Pier. The employee (Kaylee) was as sweet as could be and very patient with the traffic at the Pier.  In fact, she made two trips since there were 5 in our party heading to the Pier.
+I can't thank the Manager enough for that kind gesture.  We are likely going on this cruise again next year and I already have this property in my phone so I can make a reservation for the night before my cruise.
+This is not the prettiest property I've ever stayed at but it is certainly at the top of my list for accommodation.  A clean room, comfortable bed and...We were looking for an affordable location to spend the night before boarding a ship.  Galveston hotels tend to cost well over $150/night.  This Motel 6 was a pleasant surprise.  We paid $82/night (including tax) for 2 double beds.  Nice room - poolside.  Front desk staff was very helpful and accommodating.  Sure you have to go to the front desk for vending/ice, extra towels, but the room was clean, beds were quite comfortable.  Bath towels were a little smaller than usual but they did the job.  Coffee was available in the morning.We had made a reservation for Yellow Cab to pick us up at 10:00 am.  When the cab had still not arrived by 10:45 after 2 additional calls to Yellow Cab, the Manager of this Motel had an employee drive us to the Pier. The employee (Kaylee) was as sweet as could be and very patient with the traffic at the Pier.  In fact, she made two trips since there were 5 in our party heading to the Pier.I can't thank the Manager enough for that kind gesture.  We are likely going on this cruise again next year and I already have this property in my phone so I can make a reservation for the night before my cruise.This is not the prettiest property I've ever stayed at but it is certainly at the top of my list for accommodation.  A clean room, comfortable bed and very kind staff is what they are about. Major hotels will not pay this much attention to their customers - I've asked for little accommodations when paying well over $100/night and got no where.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>We were looking for an affordable location to spend the night before boarding a ship.  Galveston hotels tend to cost well over $150/night.  This Motel 6 was a pleasant surprise.  We paid $82/night (including tax) for 2 double beds.  Nice room - poolside.  Front desk staff was very helpful and accommodating.  Sure you have to go to the front desk for vending/ice, extra towels, but the room was clean, beds were quite comfortable.  Bath towels were a little smaller than usual but they did the job.  Coffee was available in the morning.
+We had made a reservation for Yellow Cab to pick us up at 10:00 am.  When the cab had still not arrived by 10:45 after 2 additional calls to Yellow Cab, the Manager of this Motel had an employee drive us to the Pier. The employee (Kaylee) was as sweet as could be and very patient with the traffic at the Pier.  In fact, she made two trips since there were 5 in our party heading to the Pier.
+I can't thank the Manager enough for that kind gesture.  We are likely going on this cruise again next year and I already have this property in my phone so I can make a reservation for the night before my cruise.
+This is not the prettiest property I've ever stayed at but it is certainly at the top of my list for accommodation.  A clean room, comfortable bed and...We were looking for an affordable location to spend the night before boarding a ship.  Galveston hotels tend to cost well over $150/night.  This Motel 6 was a pleasant surprise.  We paid $82/night (including tax) for 2 double beds.  Nice room - poolside.  Front desk staff was very helpful and accommodating.  Sure you have to go to the front desk for vending/ice, extra towels, but the room was clean, beds were quite comfortable.  Bath towels were a little smaller than usual but they did the job.  Coffee was available in the morning.We had made a reservation for Yellow Cab to pick us up at 10:00 am.  When the cab had still not arrived by 10:45 after 2 additional calls to Yellow Cab, the Manager of this Motel had an employee drive us to the Pier. The employee (Kaylee) was as sweet as could be and very patient with the traffic at the Pier.  In fact, she made two trips since there were 5 in our party heading to the Pier.I can't thank the Manager enough for that kind gesture.  We are likely going on this cruise again next year and I already have this property in my phone so I can make a reservation for the night before my cruise.This is not the prettiest property I've ever stayed at but it is certainly at the top of my list for accommodation.  A clean room, comfortable bed and very kind staff is what they are about. Major hotels will not pay this much attention to their customers - I've asked for little accommodations when paying well over $100/night and got no where.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r235273580-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>235273580</t>
+  </si>
+  <si>
+    <t>10/19/2014</t>
+  </si>
+  <si>
+    <t>Will not stay here again.....</t>
+  </si>
+  <si>
+    <t>My husband has to travel frequently for his job.....decided to stay in Galveston and at the Motel 6. The rooms are not clean, floors are dirty, housekeeping has checked on us ONCE, you have to go to the front desk for towels, which  is like rubbing burlap sack on your body. The water pressure is bad, whatever setting you use the water gets so hot, if you try to change it, gets hotter. You can smell cigg smoke through the vents, I am in a non smoking room. No soap, shampoo, etc. The traffic noise and construction is really bad in this area. Only good thing is they do allow pets and have a grassy area for them to do their jobs. One of the worst hotels I have stayed in. I can not believe this place passes inspection. You have to pay wifi daily for each item you use for wifi.MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Galveston, responded to this reviewResponded October 23, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 23, 2014</t>
+  </si>
+  <si>
+    <t>My husband has to travel frequently for his job.....decided to stay in Galveston and at the Motel 6. The rooms are not clean, floors are dirty, housekeeping has checked on us ONCE, you have to go to the front desk for towels, which  is like rubbing burlap sack on your body. The water pressure is bad, whatever setting you use the water gets so hot, if you try to change it, gets hotter. You can smell cigg smoke through the vents, I am in a non smoking room. No soap, shampoo, etc. The traffic noise and construction is really bad in this area. Only good thing is they do allow pets and have a grassy area for them to do their jobs. One of the worst hotels I have stayed in. I can not believe this place passes inspection. You have to pay wifi daily for each item you use for wifi.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r219576553-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>219576553</t>
+  </si>
+  <si>
+    <t>08/04/2014</t>
+  </si>
+  <si>
+    <t>beyond terrible experience</t>
+  </si>
+  <si>
+    <t>I was expecting no frills. I feel traumatized by the 1 hour I spent here. I am pretty hardy so I looked past the condom wrapper on the welcome mat and the fact that this motel is isolated and surrounded by empty lots and construction sites. I plucked up some courage bought some light cleaning supplies and tried to make the  most of it. The door seemed like it had a lot of damage like someone was trapped inside or was kicked down. The floor would not get clean. I started to feel afraid just being inside the room at 4 in the afternoon. Then came the deal breaker-the bathroom. There was mold on the soap ledge. The shower floor was black with filth. The toilet lid had urine stains on it. The women at the counter was helpful and nice. She was genuinely concerned. She gave me a refund without issue. She was five star but everything else in this place is negative ten stars. This is a great place for fishermen who can hold their own in a street fight where it is 3 against 1 and don't mind filth.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>I was expecting no frills. I feel traumatized by the 1 hour I spent here. I am pretty hardy so I looked past the condom wrapper on the welcome mat and the fact that this motel is isolated and surrounded by empty lots and construction sites. I plucked up some courage bought some light cleaning supplies and tried to make the  most of it. The door seemed like it had a lot of damage like someone was trapped inside or was kicked down. The floor would not get clean. I started to feel afraid just being inside the room at 4 in the afternoon. Then came the deal breaker-the bathroom. There was mold on the soap ledge. The shower floor was black with filth. The toilet lid had urine stains on it. The women at the counter was helpful and nice. She was genuinely concerned. She gave me a refund without issue. She was five star but everything else in this place is negative ten stars. This is a great place for fishermen who can hold their own in a street fight where it is 3 against 1 and don't mind filth.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r215863927-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>215863927</t>
+  </si>
+  <si>
+    <t>07/17/2014</t>
+  </si>
+  <si>
+    <t>Cockroaches and Mold</t>
+  </si>
+  <si>
+    <t>I have to admit that the price is quite cheap but not as much as I prepared to discover ... The room smells of mold, so much so that I had to put the car perfume hanging on the air conditioning vents. The shower tray is dirty, covered by a halo of gray as dirty not cleaned for months. One twin is placed right next to the air conditioner so that it is impossible to sleep without being caught by a congestion rimanre and then frozen like a fossil in the Arctic. Mold on the floor and the bathroom door. And finally ... the icing on the cake ... cockroaches in the bathroom! We fled from the motel at 5.00am after a terrible night! P.S. Ripensadoci ... on ... then ... the motel is not that cheap as there is no breakfast and even free wifiMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>I have to admit that the price is quite cheap but not as much as I prepared to discover ... The room smells of mold, so much so that I had to put the car perfume hanging on the air conditioning vents. The shower tray is dirty, covered by a halo of gray as dirty not cleaned for months. One twin is placed right next to the air conditioner so that it is impossible to sleep without being caught by a congestion rimanre and then frozen like a fossil in the Arctic. Mold on the floor and the bathroom door. And finally ... the icing on the cake ... cockroaches in the bathroom! We fled from the motel at 5.00am after a terrible night! P.S. Ripensadoci ... on ... then ... the motel is not that cheap as there is no breakfast and even free wifiMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r210599946-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>210599946</t>
+  </si>
+  <si>
+    <t>06/16/2014</t>
+  </si>
+  <si>
+    <t>Stayed here because it was half the price of all the other hotels on the island that weekend and now I know why it was so much cheaper.  Horrible.  Our AC did not cool the room during the day and I could only put it on 66 which sounds cold, but it hardly blew at all when it was on high.  Front desk blew me off.  Then the AC leaked in side the room on our floor. Pool was cloudy and you could not see the bottom.  House keeping did not bother taking our trash out and only made one bed one day.  Never took dirty towels they just put more.  I honestly did not want any their employees in my room anyways, but they did not give me a door hanger either.  No coffee pot, no frig, no microwave, no breakfast.  I know it was cheap compared to the other hotels, but I still feel like a got ripped off for $85.99 a night.  I have stayed at much nicer places for that price.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Stayed here because it was half the price of all the other hotels on the island that weekend and now I know why it was so much cheaper.  Horrible.  Our AC did not cool the room during the day and I could only put it on 66 which sounds cold, but it hardly blew at all when it was on high.  Front desk blew me off.  Then the AC leaked in side the room on our floor. Pool was cloudy and you could not see the bottom.  House keeping did not bother taking our trash out and only made one bed one day.  Never took dirty towels they just put more.  I honestly did not want any their employees in my room anyways, but they did not give me a door hanger either.  No coffee pot, no frig, no microwave, no breakfast.  I know it was cheap compared to the other hotels, but I still feel like a got ripped off for $85.99 a night.  I have stayed at much nicer places for that price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r209581402-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>209581402</t>
+  </si>
+  <si>
+    <t>06/09/2014</t>
+  </si>
+  <si>
+    <t>Very happy and will be back in 2015</t>
+  </si>
+  <si>
+    <t>They don't have a restaurant so this is the reason for the low mark. Your not on the beach its only 5 minutes away. Paid 50-75% less than what the big hotels on Seawall charges. Rooms are clean and the staff is very polite and will bend over backwards to make it right. The pool are as well as the Laundry area are very clean. The vending area was clean. I can not complain, for the money well worth the stay if your going on a budget save a few bucks, its not a bad place to stay. My overall experience her was great.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r207304600-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>207304600</t>
+  </si>
+  <si>
+    <t>05/27/2014</t>
+  </si>
+  <si>
+    <t>Nice room but the room smell was a little musty</t>
+  </si>
+  <si>
+    <t>The bright colors and modern fixtures and shelves were nice. Was disappointed in the fact that there was only a shower but it was nice. It was clean but smelled like stale cigarette smoke. Comfortable beds and was perfect for the overnight stay.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r206631275-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>206631275</t>
+  </si>
+  <si>
+    <t>05/22/2014</t>
+  </si>
+  <si>
+    <t>Dive joint</t>
+  </si>
+  <si>
+    <t>what a rundown trap this place is. the stand up showers have mold on the curtains and you literally need to take them down in order to keep them from touching you. the inside of the showers were painted at one point and now all the paint is peeling off, leaving the decayed and rotted bottom of the shower exposed. no hair dryer no internet no iron no coffee and NO respect or courtesy from the staff. checkout is at 11 then they will tell you you can have a late checkout at noon, but start pounding on the door and harassing you when you haven't left at 11. PAY little extra and go someplace else.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>what a rundown trap this place is. the stand up showers have mold on the curtains and you literally need to take them down in order to keep them from touching you. the inside of the showers were painted at one point and now all the paint is peeling off, leaving the decayed and rotted bottom of the shower exposed. no hair dryer no internet no iron no coffee and NO respect or courtesy from the staff. checkout is at 11 then they will tell you you can have a late checkout at noon, but start pounding on the door and harassing you when you haven't left at 11. PAY little extra and go someplace else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r198394048-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>198394048</t>
+  </si>
+  <si>
+    <t>03/23/2014</t>
+  </si>
+  <si>
+    <t>Stay anywhere but here.</t>
+  </si>
+  <si>
+    <t>No shampoo, conditioner, or bath mat. Shower floor was gross and way too small. No water pressure. No blow drier. No iron or ironing board. No coffee pot. No alarm clock. Wi-Fi cost extra.  Location was horrible, not convenient. Lumber yard next door was loud and noisy. Spend a little extra, go someplace else.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r197656204-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>197656204</t>
+  </si>
+  <si>
+    <t>03/16/2014</t>
+  </si>
+  <si>
+    <t>Nice spot</t>
+  </si>
+  <si>
+    <t>The motel 6 chain has been updated and it's nice. The staff is very nice and very helpful.  The location is great. It's close to everything.  Only thing the pool wasn't open due to the weather. Overall nice place to stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r196946299-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>196946299</t>
+  </si>
+  <si>
+    <t>03/10/2014</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>Not a bad hotel but the rooms are definitely small. The walls are paper thin. The staff was amazing. They made sure we had plenty of towels and when we had a problem with the hot water it was fixed promptly. It would be better if they had a microwave or a fridge.  I would come back but next time maybe paying a little extra wouldnt hurt.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r176580554-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>176580554</t>
+  </si>
+  <si>
+    <t>09/10/2013</t>
+  </si>
+  <si>
+    <t>No sleep/Worst bed</t>
+  </si>
+  <si>
+    <t>Only needed (1) nt in Galveston, TX so for obvious price reasons, I booked the Motel 6. Parking lot was completely full, so many others were probably here for the same reason. Website said "the all new" so thought we could live with what we saw in the pics.  We had room 134.The one mattress bed that it shows is exactly what it looks like.  Feels like a box spring.  Neither my husband nor I was able to sleep, and after a couple of hours, had to get up, because our backs were hurting so bad.  The floor covering was like walking on concrete.  Not sure what it was.  Not wood or carpet? Was definitely dirty! The shower stall was cracked and peeling. I wore flip flops in the shower.   This was not a good experience for us.  We were not expecting a lot, but will never stay at a Motel 6 again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>Only needed (1) nt in Galveston, TX so for obvious price reasons, I booked the Motel 6. Parking lot was completely full, so many others were probably here for the same reason. Website said "the all new" so thought we could live with what we saw in the pics.  We had room 134.The one mattress bed that it shows is exactly what it looks like.  Feels like a box spring.  Neither my husband nor I was able to sleep, and after a couple of hours, had to get up, because our backs were hurting so bad.  The floor covering was like walking on concrete.  Not sure what it was.  Not wood or carpet? Was definitely dirty! The shower stall was cracked and peeling. I wore flip flops in the shower.   This was not a good experience for us.  We were not expecting a lot, but will never stay at a Motel 6 again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r175496410-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>175496410</t>
+  </si>
+  <si>
+    <t>09/03/2013</t>
+  </si>
+  <si>
+    <t>Last chance for Motel 6 and they blew it!</t>
+  </si>
+  <si>
+    <t>We decided to do a last minute weekend trip to Galveston and stay at this Motel 6 since we got a free night stay courtesy of Guest Relations from a previous bad experience at a different Motel 6. Needless to say, we won't "try" another Motel 6, we are done. First, the modern room is really makeup on a very old motel, which is fine, they tried. However, it doesn't look like they put any money into the utilities such as new air conditioners. Second, the walls in room 261 had splattered mosquitos spread acrossed it, and now a couple more from us. These things were huge, it's a good thing they haven't carried away any small children yet.  My guess is they are breading in all the standing water outside the rooms from the leaking air conditioners. Third, one of our beds was full of someone elses long and short black hairs. I get it, sometimes hair falls out when making a bed, but 1-2, not 10-15 hairs over the pillows and sheets. Fourth, when we tried to get the bed redone, it took us about 30 minutes to find someone. No one would answer the desk phone and no one was in the lobby (which was locked since it was after dark). Then once I spoke to someone, I was told to give it 15 minutes and come down to the lobby and pick up the new sheets....really?...We decided to do a last minute weekend trip to Galveston and stay at this Motel 6 since we got a free night stay courtesy of Guest Relations from a previous bad experience at a different Motel 6. Needless to say, we won't "try" another Motel 6, we are done. First, the modern room is really makeup on a very old motel, which is fine, they tried. However, it doesn't look like they put any money into the utilities such as new air conditioners. Second, the walls in room 261 had splattered mosquitos spread acrossed it, and now a couple more from us. These things were huge, it's a good thing they haven't carried away any small children yet.  My guess is they are breading in all the standing water outside the rooms from the leaking air conditioners. Third, one of our beds was full of someone elses long and short black hairs. I get it, sometimes hair falls out when making a bed, but 1-2, not 10-15 hairs over the pillows and sheets. Fourth, when we tried to get the bed redone, it took us about 30 minutes to find someone. No one would answer the desk phone and no one was in the lobby (which was locked since it was after dark). Then once I spoke to someone, I was told to give it 15 minutes and come down to the lobby and pick up the new sheets....really? I'm assuming there was a communication issue, however when my wife went to the lobby 15 minutes later, she was met with attitude. Finally after about an hour from start to finish, the bed was re-made by an employee and we could get to sleep. Yes this was a holiday weekend and they were packed, yes the stay was free for us, but NO we won't ever come back to this Motel 6 or any other Motel 6 for that. Cheap doesn't have to equal dirty and rude!MoreShow less</t>
+  </si>
+  <si>
+    <t>We decided to do a last minute weekend trip to Galveston and stay at this Motel 6 since we got a free night stay courtesy of Guest Relations from a previous bad experience at a different Motel 6. Needless to say, we won't "try" another Motel 6, we are done. First, the modern room is really makeup on a very old motel, which is fine, they tried. However, it doesn't look like they put any money into the utilities such as new air conditioners. Second, the walls in room 261 had splattered mosquitos spread acrossed it, and now a couple more from us. These things were huge, it's a good thing they haven't carried away any small children yet.  My guess is they are breading in all the standing water outside the rooms from the leaking air conditioners. Third, one of our beds was full of someone elses long and short black hairs. I get it, sometimes hair falls out when making a bed, but 1-2, not 10-15 hairs over the pillows and sheets. Fourth, when we tried to get the bed redone, it took us about 30 minutes to find someone. No one would answer the desk phone and no one was in the lobby (which was locked since it was after dark). Then once I spoke to someone, I was told to give it 15 minutes and come down to the lobby and pick up the new sheets....really?...We decided to do a last minute weekend trip to Galveston and stay at this Motel 6 since we got a free night stay courtesy of Guest Relations from a previous bad experience at a different Motel 6. Needless to say, we won't "try" another Motel 6, we are done. First, the modern room is really makeup on a very old motel, which is fine, they tried. However, it doesn't look like they put any money into the utilities such as new air conditioners. Second, the walls in room 261 had splattered mosquitos spread acrossed it, and now a couple more from us. These things were huge, it's a good thing they haven't carried away any small children yet.  My guess is they are breading in all the standing water outside the rooms from the leaking air conditioners. Third, one of our beds was full of someone elses long and short black hairs. I get it, sometimes hair falls out when making a bed, but 1-2, not 10-15 hairs over the pillows and sheets. Fourth, when we tried to get the bed redone, it took us about 30 minutes to find someone. No one would answer the desk phone and no one was in the lobby (which was locked since it was after dark). Then once I spoke to someone, I was told to give it 15 minutes and come down to the lobby and pick up the new sheets....really? I'm assuming there was a communication issue, however when my wife went to the lobby 15 minutes later, she was met with attitude. Finally after about an hour from start to finish, the bed was re-made by an employee and we could get to sleep. Yes this was a holiday weekend and they were packed, yes the stay was free for us, but NO we won't ever come back to this Motel 6 or any other Motel 6 for that. Cheap doesn't have to equal dirty and rude!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r173586180-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>173586180</t>
+  </si>
+  <si>
+    <t>08/22/2013</t>
+  </si>
+  <si>
+    <t>Felt like I was in the hood.</t>
+  </si>
+  <si>
+    <t>The floors were filthy and my friends feet were black from walking barefoot.  The beds felt like bricks and were like 2 inches thick. The shower was so dirty looking I got in with my swim shoes on so I wouldn't catch anything.  The a/c was noisy and it was very humid in the room.  The room was so small it felt like a box. The front desk lady talks to you through the glass like its a jail.  Very scary for two single woman arriving after 10pm.  Would pay the extra next time to stay somewhere else for sure.MoreShow less</t>
+  </si>
+  <si>
+    <t>Motel6, Public Relations Manager at Motel 6 Galveston, responded to this reviewResponded August 24, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 24, 2013</t>
+  </si>
+  <si>
+    <t>The floors were filthy and my friends feet were black from walking barefoot.  The beds felt like bricks and were like 2 inches thick. The shower was so dirty looking I got in with my swim shoes on so I wouldn't catch anything.  The a/c was noisy and it was very humid in the room.  The room was so small it felt like a box. The front desk lady talks to you through the glass like its a jail.  Very scary for two single woman arriving after 10pm.  Would pay the extra next time to stay somewhere else for sure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r168726878-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>168726878</t>
+  </si>
+  <si>
+    <t>07/23/2013</t>
+  </si>
+  <si>
+    <t>Bottom of the barrel property</t>
+  </si>
+  <si>
+    <t>I've stayed numerous Motel 6's over the years.  This was by far the worst Motel 6 in their collection.  Did you every go big fraternity parties in college?  If so, did you ever go in the basement during the parties?  That is what this place smelled like.  Musty air, old beer, &amp; nicotine   We had two alleged non-smoking rooms rooms and both smelled that way.  There was black mold along the wall where they ripped out the bathtubs and put in "modern Euro showers"  in an effort to modernize this worn out, depressing property.  Every morning for 5 days we would be rudely awakened at 6AM by the safety backup  beeper of a contractors truck.   The pool was opaque, as if they reclaimed the grey water from the laundry and shunted it into the pools plumbing.  It never cleared during our stay.   Skip this property and pay the extra $20/ night for the Super 8 where you'll still save money over the $300+ places but won't have to tell the kids to wear flip flops into the shower.  And you'll sleep better knowing you don't have to worry about getting Legionnaires disease from the AC.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Motel6, Public Relations Manager at Motel 6 Galveston, responded to this reviewResponded July 28, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 28, 2013</t>
+  </si>
+  <si>
+    <t>I've stayed numerous Motel 6's over the years.  This was by far the worst Motel 6 in their collection.  Did you every go big fraternity parties in college?  If so, did you ever go in the basement during the parties?  That is what this place smelled like.  Musty air, old beer, &amp; nicotine   We had two alleged non-smoking rooms rooms and both smelled that way.  There was black mold along the wall where they ripped out the bathtubs and put in "modern Euro showers"  in an effort to modernize this worn out, depressing property.  Every morning for 5 days we would be rudely awakened at 6AM by the safety backup  beeper of a contractors truck.   The pool was opaque, as if they reclaimed the grey water from the laundry and shunted it into the pools plumbing.  It never cleared during our stay.   Skip this property and pay the extra $20/ night for the Super 8 where you'll still save money over the $300+ places but won't have to tell the kids to wear flip flops into the shower.  And you'll sleep better knowing you don't have to worry about getting Legionnaires disease from the AC.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r167240158-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>167240158</t>
+  </si>
+  <si>
+    <t>07/11/2013</t>
+  </si>
+  <si>
+    <t>It was good</t>
+  </si>
+  <si>
+    <t>We had just from vactation in galveston the hotel was nice and clean. I am in a wheelchair a couldn't get up the stairs so they were able to put us in a downstairs unit. It was so clean the bed were ok but we bought extra pillows to lay on. The only problem that they have is the slant parking on bordway it feels like the car going to roll forward when the break is on all in all we will stay there again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r166471744-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>166471744</t>
+  </si>
+  <si>
+    <t>07/05/2013</t>
+  </si>
+  <si>
+    <t>Spend your money somewhere else!!</t>
+  </si>
+  <si>
+    <t>We booked a double room on an online site a week before our arrival date. When we arrived, they had no double rooms and instead they gave us a single room that reeked of smoke and was the size of a closet. There was no way my husband and three kids could sleep there, and it being a holiday weekend, there were no rooms anywhere else within 20 miles. Their reasoning was that it was our fault for not booking with Motel 6 directly. They certainly lost my business, never again!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r161283580-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>161283580</t>
+  </si>
+  <si>
+    <t>05/20/2013</t>
+  </si>
+  <si>
+    <t>I found Motel 6 through one of the travel sites.  It was the least expensive "brand" motel.  We decided to stay there so we had more available funds for sight-seeing.  The travel website said free wi-fi, queen sized bed and outdoor pool.  It is a distance from most of the things we wanted to do, but overall I figured it would be ok.  The room is tiny.  The bed is a thin mattress on a plywood platform.  Sturdy, but hard as a rock.  The bathroom was very large, especially compared to the room.  But the space was under-utilized.  Small corner shower, I am a farily small person and I felt crowded.  The wi-fi is $2.99 per day, not free, and is very slow.  Next time I will spend the extra money to get a decent room.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>I found Motel 6 through one of the travel sites.  It was the least expensive "brand" motel.  We decided to stay there so we had more available funds for sight-seeing.  The travel website said free wi-fi, queen sized bed and outdoor pool.  It is a distance from most of the things we wanted to do, but overall I figured it would be ok.  The room is tiny.  The bed is a thin mattress on a plywood platform.  Sturdy, but hard as a rock.  The bathroom was very large, especially compared to the room.  But the space was under-utilized.  Small corner shower, I am a farily small person and I felt crowded.  The wi-fi is $2.99 per day, not free, and is very slow.  Next time I will spend the extra money to get a decent room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r156542570-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>156542570</t>
+  </si>
+  <si>
+    <t>04/03/2013</t>
+  </si>
+  <si>
+    <t>Clean, cheap and quite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room are not big, but they are clean and the price is reasonable.it's locate about 5 miles from beach.it's down the street from several shopping spots.The pool was clean and the staff was very friendly and helpful  ,would stay again </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r155918498-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>155918498</t>
+  </si>
+  <si>
+    <t>03/28/2013</t>
+  </si>
+  <si>
+    <t>Affordable and Clean for Spring Break</t>
+  </si>
+  <si>
+    <t>We are an Older couple, but we just happened to be in Galveston during Spring Beach this year.  We have stayed at this hotel in the past and they have been very good to us.  When all other hotels were running 100.00 and up a night, this hotel was $49.95 + you get it a litle lower if you have a AARP discount. We booked 4 nights and even though the rooms are pretty small it was very clean, always feels safe and beds are comfortable.</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r147804016-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>147804016</t>
+  </si>
+  <si>
+    <t>12/20/2012</t>
+  </si>
+  <si>
+    <t>Will Be Staying Again</t>
+  </si>
+  <si>
+    <t>My boyfriend and I had made an impromptu trip to the beach and were intending on camping on the beach, but the winds were too high. We were able to find a room easily at almost 2am. The room at the motel was very clean and modern, about the size of a college dorm, and had the basic needs for a room (there are no appliances or a coffee pot). The parking lot was lit and there were no loud people out and about on the grounds.</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r147793465-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>147793465</t>
+  </si>
+  <si>
+    <t>Take your money elsewhere</t>
+  </si>
+  <si>
+    <t>Do Not recommend this motel......the concrete on the exterior of the building is crumbling.  The rooms are dorm rooms.  Roaches in the bathroom!!No coffee pots or microwaves in the room.  Towels are handtowels.  Staff was the only good part.  Will spend more money and go to a nicer Hotel.</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r146519024-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>146519024</t>
+  </si>
+  <si>
+    <t>11/30/2012</t>
+  </si>
+  <si>
+    <t>Tolerable, low priced but there's better options.</t>
+  </si>
+  <si>
+    <t>Stayed here night before cruise because it was less expensive than similar motels on Galveston.  Remodeled, basic rooms have nice colors with dorm like furniture, vinyl flooring due to beaches.  Very small, plastic molded ,corner shower had stained/dirty looking floor and has shower head behind you by the curtain?  strange. A/C and TV worked fine.  Basic bathroom was functional; towels are scratchy/thin.  Beds are tolerable but basically stiff slabs on a platform (no box springs); basic pillows were ok. Works for a cheap, one night stay but not much more.  There's no place to eat or get gas close by.   Rooms cost less but I'd rather stay elsewhere in Galveston next time. I agree with many of the other reviews...you get what you pay for. Pros:  Less expensive, no smelly carpet, short drive to Cruise Terminal, pool looks decent, good A/C and TV (I think it was flat screen (dont recall)). Pets allowed. Cons:  No mini fridge, coffee pot, or hair dryer.  Hard beds, unusual tiny shower stall,  some outside maintenance needed;   Ice machines all the way in front next to office.  WiFi not free.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here night before cruise because it was less expensive than similar motels on Galveston.  Remodeled, basic rooms have nice colors with dorm like furniture, vinyl flooring due to beaches.  Very small, plastic molded ,corner shower had stained/dirty looking floor and has shower head behind you by the curtain?  strange. A/C and TV worked fine.  Basic bathroom was functional; towels are scratchy/thin.  Beds are tolerable but basically stiff slabs on a platform (no box springs); basic pillows were ok. Works for a cheap, one night stay but not much more.  There's no place to eat or get gas close by.   Rooms cost less but I'd rather stay elsewhere in Galveston next time. I agree with many of the other reviews...you get what you pay for. Pros:  Less expensive, no smelly carpet, short drive to Cruise Terminal, pool looks decent, good A/C and TV (I think it was flat screen (dont recall)). Pets allowed. Cons:  No mini fridge, coffee pot, or hair dryer.  Hard beds, unusual tiny shower stall,  some outside maintenance needed;   Ice machines all the way in front next to office.  WiFi not free.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r139212894-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>139212894</t>
+  </si>
+  <si>
+    <t>09/02/2012</t>
+  </si>
+  <si>
+    <t>Won't stay here again.</t>
+  </si>
+  <si>
+    <t>After dragging all of our luggage up the stairs, we opened our first room to find the bed unmade. We went back down and got another room because ..gross. The rooms are pretty small. No fridge, no microwave, no coffee pot, and very tiny towels. The shower cleanliness was less than desirable as well. The wi-fi is advertised, but it says nowhere it costs $2.99 per day. The only good part of this hotel was the fairly polite staff at the front when we arrived. We'll definitely pay the extra $100 to stay at Super 8 next time.</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r136391471-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>136391471</t>
+  </si>
+  <si>
+    <t>08/06/2012</t>
+  </si>
+  <si>
+    <t>Nice and cheap</t>
+  </si>
+  <si>
+    <t>Stayed here for a week it was ok the rooms are small the shower was small wifi is $3 for 24hrs no internet ports HDTVs was pluse on room service i told the front desk lady that i didint wont service but they still went in noting came up missing when i came back to the motel but the moltel was nice its not close to the sea wall or moddys garden but it will do for $64 a night cheapest in galveston</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r134450471-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>134450471</t>
+  </si>
+  <si>
+    <t>07/15/2012</t>
+  </si>
+  <si>
+    <t>Tried to stay here but gave up!</t>
+  </si>
+  <si>
+    <t>We tried to check in here in June 2012 but finally gave up after more than 30 minutes.  The poor desk clerk was doing her best, but the credit card machine was not working, and it was impossible to hear her throught the bullet-proof glass in the night check-in area due to the very loud ice machines in the room.  The price was okay but not great, and that combined with the disfunctional check-in process made us eventually give up and go elsewhere.  This is the type of place you wind up rather than plan to stay.</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r133022180-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>133022180</t>
+  </si>
+  <si>
+    <t>06/29/2012</t>
+  </si>
+  <si>
+    <t>You get what you pay for.</t>
+  </si>
+  <si>
+    <t>We decided to stay here just for a short weekend get away. We first pulled into the parking lot &amp; a guy was sitting in the bed of his truck listening to his Ipod and drinking a few beers. Our room was still being cleaned even though we were told to return after 3 p.m. Trash was left on the floor from previous guests. The following day we went to the beach and were gone all day only to return to an uncleaned room. We had to go to the front desk for clean towels and were given a bath towel, two hand towels and a wash cloth for four of us. Luckily, we saw the cleaning ladies and were able to get more from them. The room was a bit small but it was place to lay our heads for a couple nights. We would not recommend this place to people we liked! This place was not too expensive, but as the saying goes...you get what you pay for.MoreShow less</t>
+  </si>
+  <si>
+    <t>We decided to stay here just for a short weekend get away. We first pulled into the parking lot &amp; a guy was sitting in the bed of his truck listening to his Ipod and drinking a few beers. Our room was still being cleaned even though we were told to return after 3 p.m. Trash was left on the floor from previous guests. The following day we went to the beach and were gone all day only to return to an uncleaned room. We had to go to the front desk for clean towels and were given a bath towel, two hand towels and a wash cloth for four of us. Luckily, we saw the cleaning ladies and were able to get more from them. The room was a bit small but it was place to lay our heads for a couple nights. We would not recommend this place to people we liked! This place was not too expensive, but as the saying goes...you get what you pay for.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r131541202-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>131541202</t>
+  </si>
+  <si>
+    <t>06/08/2012</t>
+  </si>
+  <si>
+    <t>Spend a little more money and stay somewhere decent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotel is full of trashy people, the service was absolutely dreadful, they were rude, room was small and nothing was clean. Bed, towels, everything.I have the worst back ache from the bed. Never will I go cheap and stay here again. Oh and there isn't crap to eat near here you have to drive. You've been warned. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r131516880-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>131516880</t>
+  </si>
+  <si>
+    <t>06/07/2012</t>
+  </si>
+  <si>
+    <t>Do not stay here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staff at front desk were very friendly however as soon as we got out of the car we were approached by a girl trying to sell us 2 cell phones when I said no she said she had a ring for sale again I said absolutely not! So I brought the kids to pool while waiting for our room where we encountered another bad experience and that did it for me we immediately went to front desk and cancelled our reservations we never even went into our room I do not recommend this motel to anyone there on a FaMILY vacation </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r116111667-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>116111667</t>
+  </si>
+  <si>
+    <t>08/01/2011</t>
+  </si>
+  <si>
+    <t>Very nice!!!!</t>
+  </si>
+  <si>
+    <t>The room was very nice but small. Very updated but no refrigerator to put our cold drinks in. Overall very pleasant! Housekeeping forgot to clean our room... but the staff was able to help out.</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r114847459-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>114847459</t>
+  </si>
+  <si>
+    <t>06/28/2011</t>
+  </si>
+  <si>
+    <t>Loved it and will stay there again.</t>
+  </si>
+  <si>
+    <t>The staff was very friendly and the rooms were so clean and inviting.  Was very impressed with the remodeling job done at this Motel 6.  (7404 Ave J).  I am disabled so had one of the bottom floor accessible rooms.  Really enjoyed it and there was ample room for me to wheel my wheelchair around in.  Great bathroom for a disabled person too.  The only problem was the bed was hard as a rock, why I don't know but it was miserable and I just couldn't fall asleep.  That is really the only problem I had there.  Except for that everything else was great.</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r109099569-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>109099569</t>
+  </si>
+  <si>
+    <t>05/20/2011</t>
+  </si>
+  <si>
+    <t>Pretty good.</t>
+  </si>
+  <si>
+    <t>When we first pulled up to the motel, it didn't really fancy me much.Check-in took a little longer than expected, even though we did have reservations.Once we went into the room I was really surprised. Very clean, the bathrooms we're pretty big, plenty of towels, the a/c was awesome and super cold. The room itself was pretty small, but it was still good. I liked everything overall, except when i woke up in the middle of the night to go to the bathroom, there was a huge roach crawling on the floor, scared the bajezus out of me. I squealed a little and my boyfriend ended up killing it. I have no idea how it got there since when we first checked in there were no signs of bugs or roaches. But other than that, it was pretty nice and very good for the price.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>When we first pulled up to the motel, it didn't really fancy me much.Check-in took a little longer than expected, even though we did have reservations.Once we went into the room I was really surprised. Very clean, the bathrooms we're pretty big, plenty of towels, the a/c was awesome and super cold. The room itself was pretty small, but it was still good. I liked everything overall, except when i woke up in the middle of the night to go to the bathroom, there was a huge roach crawling on the floor, scared the bajezus out of me. I squealed a little and my boyfriend ended up killing it. I have no idea how it got there since when we first checked in there were no signs of bugs or roaches. But other than that, it was pretty nice and very good for the price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r90674196-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>90674196</t>
+  </si>
+  <si>
+    <t>12/25/2010</t>
+  </si>
+  <si>
+    <t>Sparkling like the Sea</t>
+  </si>
+  <si>
+    <t>I always enjoy my stay in Galveston at the Motel 6!  It is efficient, clean and inexpensive.  The folks who work there are polite and dedicated to making my stay enjoyable and easy! I stay so often that they know me by name and know what I need in a room. Even my little dog, LuLu, likes staying in their pet-friendly motel!</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r88467208-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>88467208</t>
+  </si>
+  <si>
+    <t>11/28/2010</t>
+  </si>
+  <si>
+    <t>Too bad Ike missed it</t>
+  </si>
+  <si>
+    <t>I stayed here because of the cheap internet rate, and the fact that their rooms had gotten a makeover. The room was fine for the price, other than a couple of hairs on the shower wall and a wet towel in the rack. The big turnoff however was the exterior of the property. It was absolutely slum-like, what with peeling paint, rotted wood, and sidewalks and stairs that appear way overdue a steam cleaning. The front desk personnel were all friendly and professional, although one encouraged me to go to the M6 website and give them a good review, because they'd gotten a lot of negative feedback lately.  Really??</t>
+  </si>
+  <si>
+    <t>November 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r86669801-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>86669801</t>
+  </si>
+  <si>
+    <t>11/10/2010</t>
+  </si>
+  <si>
+    <t>Disliked</t>
+  </si>
+  <si>
+    <t>Biker Rally this weekend...room rates were raised due to this event. Bikers partyed with loud music until midnight. Roaches in the room.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r67787972-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>67787972</t>
+  </si>
+  <si>
+    <t>06/17/2010</t>
+  </si>
+  <si>
+    <t>Good enough for me...</t>
+  </si>
+  <si>
+    <t>if what you are looking for is a comfortable place to stay after a long day at the beach or enjoying the other attractions then this place is a good place to go. this place is 100% better than the other "cheaper" motels on seawall blvd. service was good, lady in lobby was very nice, the rooms are gorgeous with the new remodels and very clean! the location is good, only minutes away from the beach and all the other attractions.i love how there is a laundry on premisis, the only thing i was dissapointed was that the pool was out of service the last to days of our stay, but other than that everything was good. will definatley stay here agian!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>if what you are looking for is a comfortable place to stay after a long day at the beach or enjoying the other attractions then this place is a good place to go. this place is 100% better than the other "cheaper" motels on seawall blvd. service was good, lady in lobby was very nice, the rooms are gorgeous with the new remodels and very clean! the location is good, only minutes away from the beach and all the other attractions.i love how there is a laundry on premisis, the only thing i was dissapointed was that the pool was out of service the last to days of our stay, but other than that everything was good. will definatley stay here agian!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r58928522-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>58928522</t>
+  </si>
+  <si>
+    <t>03/18/2010</t>
+  </si>
+  <si>
+    <t>Just what you need for a 1-2 nights stay</t>
+  </si>
+  <si>
+    <t>I had a great stay at Motel 6. My boyfriend and I planned a spontaneous trip to Galveston for Spring Break at the last minute. All of the rooms we found were $150.00 and up and were sold out so we decided to stay here. The location was about 5-10 minutes from the beach front, so that wasn't too bad, we had a room on the side of the building where the front desk was, so we still had a view of the gulf of Mexico. The rooms had hardwood floors which was nice especially since you’re likely to track sand into the rooms, there was a flat screen TV in our room with a great selection of channels. The bed was a queen size and not king but that was totally fine for us. We really liked the modern beach theme in the room; everything was clean in out room. The only thing the room did not provide was a coffee maker, refrigerator, and shampoo/conditioner, which is why I say this is perfect for a short stay more like 1-2 nights.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>I had a great stay at Motel 6. My boyfriend and I planned a spontaneous trip to Galveston for Spring Break at the last minute. All of the rooms we found were $150.00 and up and were sold out so we decided to stay here. The location was about 5-10 minutes from the beach front, so that wasn't too bad, we had a room on the side of the building where the front desk was, so we still had a view of the gulf of Mexico. The rooms had hardwood floors which was nice especially since you’re likely to track sand into the rooms, there was a flat screen TV in our room with a great selection of channels. The bed was a queen size and not king but that was totally fine for us. We really liked the modern beach theme in the room; everything was clean in out room. The only thing the room did not provide was a coffee maker, refrigerator, and shampoo/conditioner, which is why I say this is perfect for a short stay more like 1-2 nights.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r55877951-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>55877951</t>
+  </si>
+  <si>
+    <t>02/13/2010</t>
+  </si>
+  <si>
+    <t>OK But Has the New Remodel</t>
+  </si>
+  <si>
+    <t>I actually ended up staying an extra day here because I got a good quiet room. I checked out Friday before Valentine's Day because they jacked up the rates. This was about average for motel 6. Got some pretty good sleep.  WiFi was completely down while I was there. There are no restaurants with walking distance, but if you go down 61st St there are so many...</t>
+  </si>
+  <si>
+    <t>February 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r32865161-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>32865161</t>
+  </si>
+  <si>
+    <t>06/22/2009</t>
+  </si>
+  <si>
+    <t>Bring your patience</t>
+  </si>
+  <si>
+    <t>My sister and I went to Galveston for a church function, and when we got ready to check in and the Minister brought him a receipt for the cost of one night, the young male cashier couldn't locate us even with a confirmation number and then began to argue with the minister that he still owed six dollars even though there was a receipt, so I paid the six dollars, we scheduled a second night and when we got back from an outing the doors had been locked with our receipt inside, the front desk was apologetic this time. When I go back to Galveston,motel 6 will not be my first choice.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2009</t>
+  </si>
+  <si>
+    <t>My sister and I went to Galveston for a church function, and when we got ready to check in and the Minister brought him a receipt for the cost of one night, the young male cashier couldn't locate us even with a confirmation number and then began to argue with the minister that he still owed six dollars even though there was a receipt, so I paid the six dollars, we scheduled a second night and when we got back from an outing the doors had been locked with our receipt inside, the front desk was apologetic this time. When I go back to Galveston,motel 6 will not be my first choice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r30683086-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>30683086</t>
+  </si>
+  <si>
+    <t>05/24/2009</t>
+  </si>
+  <si>
+    <t>Bring Your Own Towels</t>
+  </si>
+  <si>
+    <t>Checked in early  at 3 a.m. Friday 5/22/09.  No wash cloths.  Had reservation for  2 nights.  Went to pay for the 2 nights and confirmed length of stay with desk clerk.  Returned to locked  room after the first night.  Desk said I owed for the second night.  I had cash receipt &amp; they still charged me an extra $61.40 for the second night.  I would not use a credit card as they might just decide to charge again.  Still no wash cloths.  Another guest asked for towels and they gave her 2 hand towels. I asked her outside the office if she had wash cloths and she said no.  There are many Sams and Walmarts within 50 miles.  They could have purchased enough to accomodate the hotel.  This was a holiday weekend and they knew they would have max occupancy.  This property was just remodeled after Hurricane Ike and they have failed to keep the rooms cleaned properly so it may soon  be back substandard again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Checked in early  at 3 a.m. Friday 5/22/09.  No wash cloths.  Had reservation for  2 nights.  Went to pay for the 2 nights and confirmed length of stay with desk clerk.  Returned to locked  room after the first night.  Desk said I owed for the second night.  I had cash receipt &amp; they still charged me an extra $61.40 for the second night.  I would not use a credit card as they might just decide to charge again.  Still no wash cloths.  Another guest asked for towels and they gave her 2 hand towels. I asked her outside the office if she had wash cloths and she said no.  There are many Sams and Walmarts within 50 miles.  They could have purchased enough to accomodate the hotel.  This was a holiday weekend and they knew they would have max occupancy.  This property was just remodeled after Hurricane Ike and they have failed to keep the rooms cleaned properly so it may soon  be back substandard again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r18749576-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>18749576</t>
+  </si>
+  <si>
+    <t>08/08/2008</t>
+  </si>
+  <si>
+    <t>Greedy Hotel Owners Price gouging customers for THIS DUMP</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel over a week- Initially did not want to honor my on line reservation but gave in and "found" A room.Upon check in moved sheets back on one bed( Was given a double) and found fecal material on the sheets.  Slept on other bed,in a week's time room was not really cleaned nor were the sheets changed on either bed.I was not given clean towels,had to go to front desk and contend with rude desk clerks.  Just prior to check out an emergency came up and I needed to extend a day.Was told that all rooms were booked up and that I had to leave.Hotel seems to cater to Mexicans-If you are white,forget it.   Bottom line-THIS PLACE IS AN OVER PRICED DUMP.Keep driving and go elsewhere.Hard to find a reasonable hotel in Galveston-These people are GREEDY and charge ridiculous rates for the smallest dump.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2008</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel over a week- Initially did not want to honor my on line reservation but gave in and "found" A room.Upon check in moved sheets back on one bed( Was given a double) and found fecal material on the sheets.  Slept on other bed,in a week's time room was not really cleaned nor were the sheets changed on either bed.I was not given clean towels,had to go to front desk and contend with rude desk clerks.  Just prior to check out an emergency came up and I needed to extend a day.Was told that all rooms were booked up and that I had to leave.Hotel seems to cater to Mexicans-If you are white,forget it.   Bottom line-THIS PLACE IS AN OVER PRICED DUMP.Keep driving and go elsewhere.Hard to find a reasonable hotel in Galveston-These people are GREEDY and charge ridiculous rates for the smallest dump.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r18396435-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>18396435</t>
+  </si>
+  <si>
+    <t>07/29/2008</t>
+  </si>
+  <si>
+    <t>Basic Motel, great location</t>
+  </si>
+  <si>
+    <t>Just returned from a Texas roadtrip and spent one night in Galveston. The Motel 6 there is located close to the highway and it is not a far drive to the Seawall or to the historic downtown center.Overall, this motel is a good location to stay in as it is a clean place, staff was friendly. Just, do not expect to much. This is a basic, standard motel.</t>
+  </si>
+  <si>
+    <t>July 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r16255583-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>16255583</t>
+  </si>
+  <si>
+    <t>05/20/2008</t>
+  </si>
+  <si>
+    <t>Not worth your money</t>
+  </si>
+  <si>
+    <t>We checked in and it was late at night when got there. Very tired from the long drive.  When we walked into the room it was hot musty . turned the ac on only for it draw out a mildew smell . Futher into the room we found that the carpets were soaked . burn holes in the comforter . management didnt nothing to help .. we  checked in with 2 adults and 2 todlers/ only enough towel for one person. the bath room floor was distgusting, the light in the shower would not stay on .. we only stayed about 24 hours and the checked out. didnt even complete my full two night .. still waiting on accor to handle this situation for us .. I would not recommend . I knew going in it was not top of the line , i was just expecting atleast alittle more for what i was paying .. lilke clean and good smelling ..  i just wanted some were to sleep and shower we planned to be on the beach rest of time .. but it could have been alot cleaner than it was,,MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2008</t>
+  </si>
+  <si>
+    <t>We checked in and it was late at night when got there. Very tired from the long drive.  When we walked into the room it was hot musty . turned the ac on only for it draw out a mildew smell . Futher into the room we found that the carpets were soaked . burn holes in the comforter . management didnt nothing to help .. we  checked in with 2 adults and 2 todlers/ only enough towel for one person. the bath room floor was distgusting, the light in the shower would not stay on .. we only stayed about 24 hours and the checked out. didnt even complete my full two night .. still waiting on accor to handle this situation for us .. I would not recommend . I knew going in it was not top of the line , i was just expecting atleast alittle more for what i was paying .. lilke clean and good smelling ..  i just wanted some were to sleep and shower we planned to be on the beach rest of time .. but it could have been alot cleaner than it was,,More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r15663683-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>15663683</t>
+  </si>
+  <si>
+    <t>05/05/2008</t>
+  </si>
+  <si>
+    <t>Great Cheap Stay!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>We stayed in this Hotel for one night. When we arrived, the room was very clean and had basic accomodations. The air conditioner was very cold and was delightful to stay in such a cold room, considering the weather. This may be too personal for some, but we requested some "women's needs" products from the office. They gave us two boxes of women's needs products, shampoo/conditioner, toothpaste, deodorant, and body spray for free. I thought this was very convenient and the staff was absolutely cordial with our requests. I would recommend this hotel for a short stay. If you are high-maintenance, this isn't the hotel for you; considering the price and area, I was more than satisfied with this hotel. Also, the cleaning staff was very helpful. Happy Customer 2008!MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed in this Hotel for one night. When we arrived, the room was very clean and had basic accomodations. The air conditioner was very cold and was delightful to stay in such a cold room, considering the weather. This may be too personal for some, but we requested some "women's needs" products from the office. They gave us two boxes of women's needs products, shampoo/conditioner, toothpaste, deodorant, and body spray for free. I thought this was very convenient and the staff was absolutely cordial with our requests. I would recommend this hotel for a short stay. If you are high-maintenance, this isn't the hotel for you; considering the price and area, I was more than satisfied with this hotel. Also, the cleaning staff was very helpful. Happy Customer 2008!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r7853288-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>7853288</t>
+  </si>
+  <si>
+    <t>06/14/2007</t>
+  </si>
+  <si>
+    <t>Great and cheap for a quick overnight stay!</t>
+  </si>
+  <si>
+    <t>We arrived there late afternoon on a Saturday after we got bumped off a flight because they were overbooked (it was Spring Break time).  The guy at the front desk was SO kind and informative.  He helped us by finding a map and directing us toward the seawall and beach and giving us some suggestions on good seafood restaurants, he even gave us a coupon to use for a free appetizer at one of the restaurants.  I think we ended up paying about $75, which was a great deal considering it was last minute and Spring Breakers were in abundance.  Inside the room was clean, there was a large mirror with counterspace and a sink outside the bathroom.  Which worked out great so I could get ready while my husband showered without the mirror fogging up!  There was also a small desk and a table with chairs, a place to hang up clothes, a TV with remote and a king size bed.  This room is not an upscale ritzy place, but it worked great for us because we are the kind of people who want to get out and explore the city instead of staying inside the hotel.  If you are mainly looking for a clean place to rest and shower, try here!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2007</t>
+  </si>
+  <si>
+    <t>We arrived there late afternoon on a Saturday after we got bumped off a flight because they were overbooked (it was Spring Break time).  The guy at the front desk was SO kind and informative.  He helped us by finding a map and directing us toward the seawall and beach and giving us some suggestions on good seafood restaurants, he even gave us a coupon to use for a free appetizer at one of the restaurants.  I think we ended up paying about $75, which was a great deal considering it was last minute and Spring Breakers were in abundance.  Inside the room was clean, there was a large mirror with counterspace and a sink outside the bathroom.  Which worked out great so I could get ready while my husband showered without the mirror fogging up!  There was also a small desk and a table with chairs, a place to hang up clothes, a TV with remote and a king size bed.  This room is not an upscale ritzy place, but it worked great for us because we are the kind of people who want to get out and explore the city instead of staying inside the hotel.  If you are mainly looking for a clean place to rest and shower, try here!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r7616726-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>7616726</t>
+  </si>
+  <si>
+    <t>05/13/2007</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>The hotel was clean and the staff was friendly on check in. I was disappointed on the second day the room was not restocked with handtowels and wash clothes and soap. Also we were very disappointed that the grounds were not watched, people were at the pool all night long, things were going on at the pool  that should have only been going on in the privacy of a room if even there. Finally at 5:00 AM we got up , packed and left.</t>
+  </si>
+  <si>
+    <t>May 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r5798094-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>5798094</t>
+  </si>
+  <si>
+    <t>09/12/2006</t>
+  </si>
+  <si>
+    <t>Nice Stay</t>
+  </si>
+  <si>
+    <t>Check-in staff was very nice and helpfull. Room was very clean. Pool was small but clean. Very quiet, no one bothered us. A small ways from the beach. We would definitley stay there again!!!</t>
+  </si>
+  <si>
+    <t>September 2006</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r3506007-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>3506007</t>
+  </si>
+  <si>
+    <t>05/27/2005</t>
+  </si>
+  <si>
+    <t>not clean</t>
+  </si>
+  <si>
+    <t>I'll never stay here again.  Luckily we only stayed one night.  The shower was filthy and there were some kind of mites or tiny bugs all over the bathroom floor.  The bed was itchy!!  Ive stayed in other Motel 6's before and they were all clean and decent, but this place was unacceptable.  I regret not bothering to try to get my money back.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d244356-r1704429-Motel_6_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>1704429</t>
+  </si>
+  <si>
+    <t>03/02/2004</t>
+  </si>
+  <si>
+    <t>Nice Motel 6</t>
+  </si>
+  <si>
+    <t>Great place to stay, clean &amp; updated rooms and nice staff.</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2279,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2311,5650 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>87</v>
+      </c>
+      <c r="O7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>100</v>
+      </c>
+      <c r="X9" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" t="s">
+        <v>106</v>
+      </c>
+      <c r="L10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>93</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L11" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>113</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>114</v>
+      </c>
+      <c r="X11" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>118</v>
+      </c>
+      <c r="J12" t="s">
+        <v>119</v>
+      </c>
+      <c r="K12" t="s">
+        <v>120</v>
+      </c>
+      <c r="L12" t="s">
+        <v>121</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>122</v>
+      </c>
+      <c r="O12" t="s">
+        <v>123</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>114</v>
+      </c>
+      <c r="X12" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>126</v>
+      </c>
+      <c r="J13" t="s">
+        <v>127</v>
+      </c>
+      <c r="K13" t="s">
+        <v>128</v>
+      </c>
+      <c r="L13" t="s">
+        <v>129</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>130</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>114</v>
+      </c>
+      <c r="X13" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>133</v>
+      </c>
+      <c r="J14" t="s">
+        <v>134</v>
+      </c>
+      <c r="K14" t="s">
+        <v>135</v>
+      </c>
+      <c r="L14" t="s">
+        <v>136</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>137</v>
+      </c>
+      <c r="O14" t="s">
+        <v>74</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>138</v>
+      </c>
+      <c r="X14" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>142</v>
+      </c>
+      <c r="J15" t="s">
+        <v>143</v>
+      </c>
+      <c r="K15" t="s">
+        <v>144</v>
+      </c>
+      <c r="L15" t="s">
+        <v>145</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>146</v>
+      </c>
+      <c r="O15" t="s">
+        <v>74</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>147</v>
+      </c>
+      <c r="X15" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>150</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>151</v>
+      </c>
+      <c r="J16" t="s">
+        <v>152</v>
+      </c>
+      <c r="K16" t="s">
+        <v>153</v>
+      </c>
+      <c r="L16" t="s">
+        <v>154</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>155</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>156</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>157</v>
+      </c>
+      <c r="J17" t="s">
+        <v>158</v>
+      </c>
+      <c r="K17" t="s">
+        <v>159</v>
+      </c>
+      <c r="L17" t="s">
+        <v>160</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>161</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>162</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>163</v>
+      </c>
+      <c r="J18" t="s">
+        <v>164</v>
+      </c>
+      <c r="K18" t="s">
+        <v>165</v>
+      </c>
+      <c r="L18" t="s">
+        <v>166</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>167</v>
+      </c>
+      <c r="O18" t="s">
+        <v>74</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>168</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>169</v>
+      </c>
+      <c r="J19" t="s">
+        <v>170</v>
+      </c>
+      <c r="K19" t="s">
+        <v>171</v>
+      </c>
+      <c r="L19" t="s">
+        <v>172</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>161</v>
+      </c>
+      <c r="O19" t="s">
+        <v>68</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>173</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>174</v>
+      </c>
+      <c r="J20" t="s">
+        <v>175</v>
+      </c>
+      <c r="K20" t="s">
+        <v>176</v>
+      </c>
+      <c r="L20" t="s">
+        <v>177</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>178</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>180</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>181</v>
+      </c>
+      <c r="J21" t="s">
+        <v>182</v>
+      </c>
+      <c r="K21" t="s">
+        <v>183</v>
+      </c>
+      <c r="L21" t="s">
+        <v>184</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>185</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>186</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>187</v>
+      </c>
+      <c r="J22" t="s">
+        <v>182</v>
+      </c>
+      <c r="K22" t="s">
+        <v>188</v>
+      </c>
+      <c r="L22" t="s">
+        <v>189</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>155</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>190</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>191</v>
+      </c>
+      <c r="J23" t="s">
+        <v>192</v>
+      </c>
+      <c r="K23" t="s">
+        <v>193</v>
+      </c>
+      <c r="L23" t="s">
+        <v>194</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>130</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>195</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>196</v>
+      </c>
+      <c r="J24" t="s">
+        <v>197</v>
+      </c>
+      <c r="K24" t="s">
+        <v>198</v>
+      </c>
+      <c r="L24" t="s">
+        <v>199</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>130</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>200</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>201</v>
+      </c>
+      <c r="J25" t="s">
+        <v>202</v>
+      </c>
+      <c r="K25" t="s">
+        <v>203</v>
+      </c>
+      <c r="L25" t="s">
+        <v>204</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>130</v>
+      </c>
+      <c r="O25" t="s">
+        <v>74</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>206</v>
+      </c>
+      <c r="J26" t="s">
+        <v>207</v>
+      </c>
+      <c r="K26" t="s">
+        <v>208</v>
+      </c>
+      <c r="L26" t="s">
+        <v>209</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>167</v>
+      </c>
+      <c r="O26" t="s">
+        <v>210</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>211</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>212</v>
+      </c>
+      <c r="J27" t="s">
+        <v>213</v>
+      </c>
+      <c r="K27" t="s">
+        <v>214</v>
+      </c>
+      <c r="L27" t="s">
+        <v>215</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>167</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>216</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>217</v>
+      </c>
+      <c r="J28" t="s">
+        <v>218</v>
+      </c>
+      <c r="K28" t="s">
+        <v>219</v>
+      </c>
+      <c r="L28" t="s">
+        <v>220</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>221</v>
+      </c>
+      <c r="O28" t="s">
+        <v>123</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>222</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>223</v>
+      </c>
+      <c r="J29" t="s">
+        <v>224</v>
+      </c>
+      <c r="K29" t="s">
+        <v>225</v>
+      </c>
+      <c r="L29" t="s">
+        <v>226</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>227</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>228</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>229</v>
+      </c>
+      <c r="J30" t="s">
+        <v>230</v>
+      </c>
+      <c r="K30" t="s">
+        <v>231</v>
+      </c>
+      <c r="L30" t="s">
+        <v>232</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>233</v>
+      </c>
+      <c r="X30" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>236</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>237</v>
+      </c>
+      <c r="J31" t="s">
+        <v>238</v>
+      </c>
+      <c r="K31" t="s">
+        <v>239</v>
+      </c>
+      <c r="L31" t="s">
+        <v>240</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>241</v>
+      </c>
+      <c r="O31" t="s">
+        <v>68</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>242</v>
+      </c>
+      <c r="X31" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>245</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>246</v>
+      </c>
+      <c r="J32" t="s">
+        <v>247</v>
+      </c>
+      <c r="K32" t="s">
+        <v>248</v>
+      </c>
+      <c r="L32" t="s">
+        <v>249</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>241</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>251</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>252</v>
+      </c>
+      <c r="J33" t="s">
+        <v>253</v>
+      </c>
+      <c r="K33" t="s">
+        <v>254</v>
+      </c>
+      <c r="L33" t="s">
+        <v>255</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>241</v>
+      </c>
+      <c r="O33" t="s">
+        <v>74</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>256</v>
+      </c>
+      <c r="X33" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>259</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>260</v>
+      </c>
+      <c r="J34" t="s">
+        <v>261</v>
+      </c>
+      <c r="K34" t="s">
+        <v>262</v>
+      </c>
+      <c r="L34" t="s">
+        <v>263</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>264</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>266</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>267</v>
+      </c>
+      <c r="J35" t="s">
+        <v>268</v>
+      </c>
+      <c r="K35" t="s">
+        <v>269</v>
+      </c>
+      <c r="L35" t="s">
+        <v>270</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s">
+        <v>271</v>
+      </c>
+      <c r="O35" t="s">
+        <v>123</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>272</v>
+      </c>
+      <c r="X35" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>275</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>276</v>
+      </c>
+      <c r="J36" t="s">
+        <v>277</v>
+      </c>
+      <c r="K36" t="s">
+        <v>278</v>
+      </c>
+      <c r="L36" t="s">
+        <v>279</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>280</v>
+      </c>
+      <c r="O36" t="s">
+        <v>210</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>1</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>281</v>
+      </c>
+      <c r="X36" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>284</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>285</v>
+      </c>
+      <c r="J37" t="s">
+        <v>286</v>
+      </c>
+      <c r="K37" t="s">
+        <v>287</v>
+      </c>
+      <c r="L37" t="s">
+        <v>288</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>280</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>290</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>291</v>
+      </c>
+      <c r="J38" t="s">
+        <v>292</v>
+      </c>
+      <c r="K38" t="s">
+        <v>293</v>
+      </c>
+      <c r="L38" t="s">
+        <v>294</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>295</v>
+      </c>
+      <c r="O38" t="s">
+        <v>68</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>3</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>3</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>297</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>298</v>
+      </c>
+      <c r="J39" t="s">
+        <v>299</v>
+      </c>
+      <c r="K39" t="s">
+        <v>300</v>
+      </c>
+      <c r="L39" t="s">
+        <v>301</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>302</v>
+      </c>
+      <c r="O39" t="s">
+        <v>210</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>2</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>303</v>
+      </c>
+      <c r="X39" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>306</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>307</v>
+      </c>
+      <c r="J40" t="s">
+        <v>308</v>
+      </c>
+      <c r="K40" t="s">
+        <v>309</v>
+      </c>
+      <c r="L40" t="s">
+        <v>310</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>295</v>
+      </c>
+      <c r="O40" t="s">
+        <v>74</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="n">
+        <v>2</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>3</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>312</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>313</v>
+      </c>
+      <c r="J41" t="s">
+        <v>314</v>
+      </c>
+      <c r="K41" t="s">
+        <v>315</v>
+      </c>
+      <c r="L41" t="s">
+        <v>316</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>317</v>
+      </c>
+      <c r="O41" t="s">
+        <v>210</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>1</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>318</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>319</v>
+      </c>
+      <c r="J42" t="s">
+        <v>320</v>
+      </c>
+      <c r="K42" t="s">
+        <v>321</v>
+      </c>
+      <c r="L42" t="s">
+        <v>322</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>323</v>
+      </c>
+      <c r="O42" t="s">
+        <v>210</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>325</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>326</v>
+      </c>
+      <c r="J43" t="s">
+        <v>327</v>
+      </c>
+      <c r="K43" t="s">
+        <v>328</v>
+      </c>
+      <c r="L43" t="s">
+        <v>329</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>323</v>
+      </c>
+      <c r="O43" t="s">
+        <v>123</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>330</v>
+      </c>
+      <c r="X43" t="s">
+        <v>331</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>333</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>334</v>
+      </c>
+      <c r="J44" t="s">
+        <v>335</v>
+      </c>
+      <c r="K44" t="s">
+        <v>336</v>
+      </c>
+      <c r="L44" t="s">
+        <v>337</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>338</v>
+      </c>
+      <c r="O44" t="s">
+        <v>68</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>340</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>341</v>
+      </c>
+      <c r="J45" t="s">
+        <v>342</v>
+      </c>
+      <c r="K45" t="s">
+        <v>343</v>
+      </c>
+      <c r="L45" t="s">
+        <v>344</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>345</v>
+      </c>
+      <c r="O45" t="s">
+        <v>74</v>
+      </c>
+      <c r="P45" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="n">
+        <v>1</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>2</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>347</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>348</v>
+      </c>
+      <c r="J46" t="s">
+        <v>349</v>
+      </c>
+      <c r="K46" t="s">
+        <v>278</v>
+      </c>
+      <c r="L46" t="s">
+        <v>350</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>351</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>2</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>1</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>353</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>354</v>
+      </c>
+      <c r="J47" t="s">
+        <v>355</v>
+      </c>
+      <c r="K47" t="s">
+        <v>356</v>
+      </c>
+      <c r="L47" t="s">
+        <v>357</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>351</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>358</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>359</v>
+      </c>
+      <c r="J48" t="s">
+        <v>360</v>
+      </c>
+      <c r="K48" t="s">
+        <v>361</v>
+      </c>
+      <c r="L48" t="s">
+        <v>362</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>363</v>
+      </c>
+      <c r="O48" t="s">
+        <v>210</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>364</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>365</v>
+      </c>
+      <c r="J49" t="s">
+        <v>366</v>
+      </c>
+      <c r="K49" t="s">
+        <v>367</v>
+      </c>
+      <c r="L49" t="s">
+        <v>368</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
+        <v>369</v>
+      </c>
+      <c r="O49" t="s">
+        <v>123</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>371</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>372</v>
+      </c>
+      <c r="J50" t="s">
+        <v>373</v>
+      </c>
+      <c r="K50" t="s">
+        <v>374</v>
+      </c>
+      <c r="L50" t="s">
+        <v>375</v>
+      </c>
+      <c r="M50" t="n">
+        <v>2</v>
+      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>2</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1</v>
+      </c>
+      <c r="S50" t="n">
+        <v>2</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>1</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>376</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>377</v>
+      </c>
+      <c r="J51" t="s">
+        <v>378</v>
+      </c>
+      <c r="K51" t="s">
+        <v>379</v>
+      </c>
+      <c r="L51" t="s">
+        <v>380</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>3</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>381</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>382</v>
+      </c>
+      <c r="J52" t="s">
+        <v>383</v>
+      </c>
+      <c r="K52" t="s">
+        <v>384</v>
+      </c>
+      <c r="L52" t="s">
+        <v>385</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>386</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>387</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>388</v>
+      </c>
+      <c r="J53" t="s">
+        <v>389</v>
+      </c>
+      <c r="K53" t="s">
+        <v>390</v>
+      </c>
+      <c r="L53" t="s">
+        <v>391</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s">
+        <v>392</v>
+      </c>
+      <c r="O53" t="s">
+        <v>74</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>2</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>2</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>394</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>395</v>
+      </c>
+      <c r="J54" t="s">
+        <v>396</v>
+      </c>
+      <c r="K54" t="s">
+        <v>397</v>
+      </c>
+      <c r="L54" t="s">
+        <v>398</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2</v>
+      </c>
+      <c r="N54" t="s">
+        <v>392</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>2</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>1</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>400</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>401</v>
+      </c>
+      <c r="J55" t="s">
+        <v>402</v>
+      </c>
+      <c r="K55" t="s">
+        <v>403</v>
+      </c>
+      <c r="L55" t="s">
+        <v>404</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
+      <c r="P55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1</v>
+      </c>
+      <c r="R55" t="n">
+        <v>1</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>1</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>405</v>
+      </c>
+      <c r="X55" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>408</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>409</v>
+      </c>
+      <c r="J56" t="s">
+        <v>410</v>
+      </c>
+      <c r="K56" t="s">
+        <v>411</v>
+      </c>
+      <c r="L56" t="s">
+        <v>412</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>413</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>2</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>414</v>
+      </c>
+      <c r="X56" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>417</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>418</v>
+      </c>
+      <c r="J57" t="s">
+        <v>419</v>
+      </c>
+      <c r="K57" t="s">
+        <v>420</v>
+      </c>
+      <c r="L57" t="s">
+        <v>421</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>3</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>422</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>423</v>
+      </c>
+      <c r="J58" t="s">
+        <v>424</v>
+      </c>
+      <c r="K58" t="s">
+        <v>425</v>
+      </c>
+      <c r="L58" t="s">
+        <v>426</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s"/>
+      <c r="O58" t="s"/>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>427</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>428</v>
+      </c>
+      <c r="J59" t="s">
+        <v>429</v>
+      </c>
+      <c r="K59" t="s">
+        <v>269</v>
+      </c>
+      <c r="L59" t="s">
+        <v>430</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s">
+        <v>431</v>
+      </c>
+      <c r="O59" t="s">
+        <v>74</v>
+      </c>
+      <c r="P59" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>2</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>3</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>433</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>434</v>
+      </c>
+      <c r="J60" t="s">
+        <v>435</v>
+      </c>
+      <c r="K60" t="s">
+        <v>436</v>
+      </c>
+      <c r="L60" t="s">
+        <v>437</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s"/>
+      <c r="O60" t="s"/>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>438</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>439</v>
+      </c>
+      <c r="J61" t="s">
+        <v>440</v>
+      </c>
+      <c r="K61" t="s">
+        <v>441</v>
+      </c>
+      <c r="L61" t="s">
+        <v>442</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>443</v>
+      </c>
+      <c r="O61" t="s">
+        <v>74</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>444</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>445</v>
+      </c>
+      <c r="J62" t="s">
+        <v>446</v>
+      </c>
+      <c r="K62" t="s">
+        <v>447</v>
+      </c>
+      <c r="L62" t="s">
+        <v>448</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>449</v>
+      </c>
+      <c r="O62" t="s">
+        <v>74</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>450</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>451</v>
+      </c>
+      <c r="J63" t="s">
+        <v>446</v>
+      </c>
+      <c r="K63" t="s">
+        <v>452</v>
+      </c>
+      <c r="L63" t="s">
+        <v>453</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>454</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="n">
+        <v>1</v>
+      </c>
+      <c r="S63" t="n">
+        <v>1</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>3</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>455</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>456</v>
+      </c>
+      <c r="J64" t="s">
+        <v>457</v>
+      </c>
+      <c r="K64" t="s">
+        <v>458</v>
+      </c>
+      <c r="L64" t="s">
+        <v>459</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>449</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>3</v>
+      </c>
+      <c r="R64" t="n">
+        <v>2</v>
+      </c>
+      <c r="S64" t="n">
+        <v>3</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>3</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>461</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>462</v>
+      </c>
+      <c r="J65" t="s">
+        <v>463</v>
+      </c>
+      <c r="K65" t="s">
+        <v>464</v>
+      </c>
+      <c r="L65" t="s">
+        <v>465</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2</v>
+      </c>
+      <c r="N65" t="s">
+        <v>466</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>3</v>
+      </c>
+      <c r="R65" t="n">
+        <v>2</v>
+      </c>
+      <c r="S65" t="n">
+        <v>2</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>3</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>467</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>468</v>
+      </c>
+      <c r="J66" t="s">
+        <v>469</v>
+      </c>
+      <c r="K66" t="s">
+        <v>470</v>
+      </c>
+      <c r="L66" t="s">
+        <v>471</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" t="s"/>
+      <c r="O66" t="s"/>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>3</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>472</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>473</v>
+      </c>
+      <c r="J67" t="s">
+        <v>474</v>
+      </c>
+      <c r="K67" t="s">
+        <v>475</v>
+      </c>
+      <c r="L67" t="s">
+        <v>476</v>
+      </c>
+      <c r="M67" t="n">
+        <v>2</v>
+      </c>
+      <c r="N67" t="s">
+        <v>477</v>
+      </c>
+      <c r="O67" t="s">
+        <v>210</v>
+      </c>
+      <c r="P67" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="n">
+        <v>2</v>
+      </c>
+      <c r="S67" t="n">
+        <v>3</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>2</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>478</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>479</v>
+      </c>
+      <c r="J68" t="s">
+        <v>480</v>
+      </c>
+      <c r="K68" t="s">
+        <v>481</v>
+      </c>
+      <c r="L68" t="s">
+        <v>482</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2</v>
+      </c>
+      <c r="N68" t="s"/>
+      <c r="O68" t="s"/>
+      <c r="P68" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>1</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>1</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>3</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>484</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>485</v>
+      </c>
+      <c r="J69" t="s">
+        <v>486</v>
+      </c>
+      <c r="K69" t="s">
+        <v>487</v>
+      </c>
+      <c r="L69" t="s">
+        <v>488</v>
+      </c>
+      <c r="M69" t="n">
+        <v>2</v>
+      </c>
+      <c r="N69" t="s"/>
+      <c r="O69" t="s"/>
+      <c r="P69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>2</v>
+      </c>
+      <c r="R69" t="n">
+        <v>2</v>
+      </c>
+      <c r="S69" t="n">
+        <v>2</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>1</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>489</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>490</v>
+      </c>
+      <c r="J70" t="s">
+        <v>491</v>
+      </c>
+      <c r="K70" t="s">
+        <v>492</v>
+      </c>
+      <c r="L70" t="s">
+        <v>493</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="s"/>
+      <c r="O70" t="s"/>
+      <c r="P70" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>2</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3</v>
+      </c>
+      <c r="S70" t="n">
+        <v>2</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>494</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>495</v>
+      </c>
+      <c r="J71" t="s">
+        <v>496</v>
+      </c>
+      <c r="K71" t="s">
+        <v>497</v>
+      </c>
+      <c r="L71" t="s">
+        <v>498</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>499</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>500</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>501</v>
+      </c>
+      <c r="J72" t="s">
+        <v>502</v>
+      </c>
+      <c r="K72" t="s">
+        <v>503</v>
+      </c>
+      <c r="L72" t="s">
+        <v>504</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>505</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>506</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>507</v>
+      </c>
+      <c r="J73" t="s">
+        <v>508</v>
+      </c>
+      <c r="K73" t="s">
+        <v>509</v>
+      </c>
+      <c r="L73" t="s">
+        <v>510</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>511</v>
+      </c>
+      <c r="O73" t="s">
+        <v>74</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>513</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>514</v>
+      </c>
+      <c r="J74" t="s">
+        <v>515</v>
+      </c>
+      <c r="K74" t="s">
+        <v>516</v>
+      </c>
+      <c r="L74" t="s">
+        <v>517</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>518</v>
+      </c>
+      <c r="O74" t="s">
+        <v>123</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>3</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>519</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>520</v>
+      </c>
+      <c r="J75" t="s">
+        <v>521</v>
+      </c>
+      <c r="K75" t="s">
+        <v>522</v>
+      </c>
+      <c r="L75" t="s">
+        <v>523</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" t="s">
+        <v>524</v>
+      </c>
+      <c r="O75" t="s">
+        <v>123</v>
+      </c>
+      <c r="P75" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>3</v>
+      </c>
+      <c r="R75" t="n">
+        <v>2</v>
+      </c>
+      <c r="S75" t="n">
+        <v>1</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>525</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>526</v>
+      </c>
+      <c r="J76" t="s">
+        <v>527</v>
+      </c>
+      <c r="K76" t="s">
+        <v>528</v>
+      </c>
+      <c r="L76" t="s">
+        <v>529</v>
+      </c>
+      <c r="M76" t="n">
+        <v>2</v>
+      </c>
+      <c r="N76" t="s">
+        <v>524</v>
+      </c>
+      <c r="O76" t="s">
+        <v>74</v>
+      </c>
+      <c r="P76" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>2</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3</v>
+      </c>
+      <c r="S76" t="n">
+        <v>2</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>2</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>530</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>531</v>
+      </c>
+      <c r="J77" t="s">
+        <v>532</v>
+      </c>
+      <c r="K77" t="s">
+        <v>533</v>
+      </c>
+      <c r="L77" t="s">
+        <v>534</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="s">
+        <v>535</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>537</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>538</v>
+      </c>
+      <c r="J78" t="s">
+        <v>539</v>
+      </c>
+      <c r="K78" t="s">
+        <v>540</v>
+      </c>
+      <c r="L78" t="s">
+        <v>541</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>542</v>
+      </c>
+      <c r="O78" t="s">
+        <v>74</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>544</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>545</v>
+      </c>
+      <c r="J79" t="s">
+        <v>546</v>
+      </c>
+      <c r="K79" t="s">
+        <v>547</v>
+      </c>
+      <c r="L79" t="s">
+        <v>548</v>
+      </c>
+      <c r="M79" t="n">
+        <v>3</v>
+      </c>
+      <c r="N79" t="s">
+        <v>549</v>
+      </c>
+      <c r="O79" t="s">
+        <v>68</v>
+      </c>
+      <c r="P79" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>3</v>
+      </c>
+      <c r="R79" t="n">
+        <v>2</v>
+      </c>
+      <c r="S79" t="n">
+        <v>3</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>3</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>550</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>551</v>
+      </c>
+      <c r="J80" t="s">
+        <v>552</v>
+      </c>
+      <c r="K80" t="s">
+        <v>553</v>
+      </c>
+      <c r="L80" t="s">
+        <v>554</v>
+      </c>
+      <c r="M80" t="n">
+        <v>3</v>
+      </c>
+      <c r="N80" t="s">
+        <v>555</v>
+      </c>
+      <c r="O80" t="s">
+        <v>123</v>
+      </c>
+      <c r="P80" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>3</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>3</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>2</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>557</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>558</v>
+      </c>
+      <c r="J81" t="s">
+        <v>559</v>
+      </c>
+      <c r="K81" t="s">
+        <v>560</v>
+      </c>
+      <c r="L81" t="s">
+        <v>561</v>
+      </c>
+      <c r="M81" t="n">
+        <v>2</v>
+      </c>
+      <c r="N81" t="s"/>
+      <c r="O81" t="s"/>
+      <c r="P81" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>1</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>1</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>1</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>563</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>564</v>
+      </c>
+      <c r="J82" t="s">
+        <v>565</v>
+      </c>
+      <c r="K82" t="s">
+        <v>566</v>
+      </c>
+      <c r="L82" t="s">
+        <v>567</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="s">
+        <v>568</v>
+      </c>
+      <c r="O82" t="s">
+        <v>123</v>
+      </c>
+      <c r="P82" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>1</v>
+      </c>
+      <c r="R82" t="n">
+        <v>1</v>
+      </c>
+      <c r="S82" t="n">
+        <v>1</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>1</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>570</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>571</v>
+      </c>
+      <c r="J83" t="s">
+        <v>572</v>
+      </c>
+      <c r="K83" t="s">
+        <v>573</v>
+      </c>
+      <c r="L83" t="s">
+        <v>574</v>
+      </c>
+      <c r="M83" t="n">
+        <v>3</v>
+      </c>
+      <c r="N83" t="s">
+        <v>575</v>
+      </c>
+      <c r="O83" t="s">
+        <v>74</v>
+      </c>
+      <c r="P83" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>3</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>3</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>3</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>576</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>577</v>
+      </c>
+      <c r="J84" t="s">
+        <v>578</v>
+      </c>
+      <c r="K84" t="s">
+        <v>579</v>
+      </c>
+      <c r="L84" t="s">
+        <v>580</v>
+      </c>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="s">
+        <v>581</v>
+      </c>
+      <c r="O84" t="s">
+        <v>53</v>
+      </c>
+      <c r="P84" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>1</v>
+      </c>
+      <c r="R84" t="n">
+        <v>3</v>
+      </c>
+      <c r="S84" t="n">
+        <v>1</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="s"/>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>583</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>584</v>
+      </c>
+      <c r="J85" t="s">
+        <v>585</v>
+      </c>
+      <c r="K85" t="s">
+        <v>586</v>
+      </c>
+      <c r="L85" t="s">
+        <v>587</v>
+      </c>
+      <c r="M85" t="n">
+        <v>3</v>
+      </c>
+      <c r="N85" t="s">
+        <v>581</v>
+      </c>
+      <c r="O85" t="s">
+        <v>74</v>
+      </c>
+      <c r="P85" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>3</v>
+      </c>
+      <c r="R85" t="n">
+        <v>3</v>
+      </c>
+      <c r="S85" t="n">
+        <v>3</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>4</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>589</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>590</v>
+      </c>
+      <c r="J86" t="s">
+        <v>591</v>
+      </c>
+      <c r="K86" t="s">
+        <v>592</v>
+      </c>
+      <c r="L86" t="s">
+        <v>593</v>
+      </c>
+      <c r="M86" t="n">
+        <v>3</v>
+      </c>
+      <c r="N86" t="s">
+        <v>594</v>
+      </c>
+      <c r="O86" t="s">
+        <v>74</v>
+      </c>
+      <c r="P86" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>3</v>
+      </c>
+      <c r="R86" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" t="n">
+        <v>4</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>3</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>596</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>597</v>
+      </c>
+      <c r="J87" t="s">
+        <v>598</v>
+      </c>
+      <c r="K87" t="s">
+        <v>599</v>
+      </c>
+      <c r="L87" t="s">
+        <v>600</v>
+      </c>
+      <c r="M87" t="n">
+        <v>2</v>
+      </c>
+      <c r="N87" t="s">
+        <v>601</v>
+      </c>
+      <c r="O87" t="s">
+        <v>74</v>
+      </c>
+      <c r="P87" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>3</v>
+      </c>
+      <c r="R87" t="n">
+        <v>3</v>
+      </c>
+      <c r="S87" t="n">
+        <v>3</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>2</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>602</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>603</v>
+      </c>
+      <c r="J88" t="s">
+        <v>604</v>
+      </c>
+      <c r="K88" t="s">
+        <v>605</v>
+      </c>
+      <c r="L88" t="s">
+        <v>606</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>607</v>
+      </c>
+      <c r="O88" t="s">
+        <v>74</v>
+      </c>
+      <c r="P88" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>4</v>
+      </c>
+      <c r="R88" t="n">
+        <v>3</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>608</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>609</v>
+      </c>
+      <c r="J89" t="s">
+        <v>610</v>
+      </c>
+      <c r="K89" t="s">
+        <v>611</v>
+      </c>
+      <c r="L89" t="s">
+        <v>612</v>
+      </c>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" t="s"/>
+      <c r="O89" t="s"/>
+      <c r="P89" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>1</v>
+      </c>
+      <c r="R89" t="s"/>
+      <c r="S89" t="n">
+        <v>1</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>3</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>6569</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>613</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>614</v>
+      </c>
+      <c r="J90" t="s">
+        <v>615</v>
+      </c>
+      <c r="K90" t="s">
+        <v>616</v>
+      </c>
+      <c r="L90" t="s">
+        <v>617</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s"/>
+      <c r="O90" t="s"/>
+      <c r="P90" t="s"/>
+      <c r="Q90" t="s"/>
+      <c r="R90" t="s"/>
+      <c r="S90" t="s"/>
+      <c r="T90" t="s"/>
+      <c r="U90" t="s"/>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>617</v>
       </c>
     </row>
   </sheetData>
